--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3791FB3F-1DF9-C248-9C52-84E46669DA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AE4658-1017-924D-95EE-6E793FBC894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="70">
   <si>
     <t>Vaccine</t>
   </si>
@@ -585,7 +585,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1418,15 +1418,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1472,8 +1476,20 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1508,7 +1524,7 @@
         <v>364635</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1540,7 +1556,7 @@
         <v>6935</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1572,7 +1588,7 @@
         <v>4015</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1607,7 +1623,7 @@
         <v>364635</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1648,7 +1664,7 @@
         <v>15695</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1689,7 +1705,7 @@
         <v>364635</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1736,7 +1752,7 @@
         <v>9490</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1777,7 +1793,7 @@
         <v>364635</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AE4658-1017-924D-95EE-6E793FBC894C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7878267-7709-F94B-958C-D05B5754AD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="70">
   <si>
     <t>Vaccine</t>
   </si>
@@ -585,7 +585,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1840,6 +1840,94 @@
         <v>21535</v>
       </c>
     </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>6570</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>30</v>
+      </c>
+      <c r="M11">
+        <v>60</v>
+      </c>
+      <c r="N11">
+        <v>180</v>
+      </c>
+      <c r="O11">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>42</v>
+      </c>
+      <c r="I12">
+        <v>240</v>
+      </c>
+      <c r="J12">
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>60</v>
+      </c>
+      <c r="L12">
+        <v>120</v>
+      </c>
+      <c r="M12">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7878267-7709-F94B-958C-D05B5754AD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6903D6-311F-F44C-817F-2914C3605778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="70">
   <si>
     <t>Vaccine</t>
   </si>
@@ -585,7 +585,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S3"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1418,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1512,7 +1512,7 @@
         <v>23</v>
       </c>
       <c r="H2">
-        <v>6935</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>364635</v>
@@ -1838,94 +1838,6 @@
       </c>
       <c r="O10">
         <v>21535</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>6570</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>30</v>
-      </c>
-      <c r="M11">
-        <v>60</v>
-      </c>
-      <c r="N11">
-        <v>180</v>
-      </c>
-      <c r="O11">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12">
-        <v>42</v>
-      </c>
-      <c r="I12">
-        <v>240</v>
-      </c>
-      <c r="J12">
-        <v>60</v>
-      </c>
-      <c r="K12">
-        <v>60</v>
-      </c>
-      <c r="L12">
-        <v>120</v>
-      </c>
-      <c r="M12">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6903D6-311F-F44C-817F-2914C3605778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B45661-F4F9-644C-920E-2B8CB4242C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="74">
   <si>
     <t>Vaccine</t>
   </si>
@@ -231,19 +231,37 @@
   </si>
   <si>
     <t>1 month</t>
+  </si>
+  <si>
+    <t>You are eligible to get this vaccine if meeting on of the following conditions: Chronic liver disease (Hepatitis B or C, cirrhosis, fatty liver disease, alcoholic liver disease, autoimmune hepatitis, ALT or AST &gt; 2x ULN, HIV infection, Sexual exposure risk , Current or recent injection drug use, Household contacts, Healthcare worker, Dialysis, Incarceration, Travel to countries with high rates of hepatitis B</t>
+  </si>
+  <si>
+    <t>condition 1</t>
+  </si>
+  <si>
+    <t>condition 2</t>
+  </si>
+  <si>
+    <t>You are NOT eligible to get this vaccine if meeting on of the following conditions: Laboratory evidence of immunity or disease, Born before 1980 (except for pregnant persons or healthcare workers), 2 doses of varicella vaccine at least 4 weeks apart, Diagnosis or history of varicella or herpes zoster by a healthcare provider, , , , , , </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -266,8 +284,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="T1" sqref="T1:U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -594,7 +613,7 @@
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,8 +671,14 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -700,7 +725,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -741,7 +766,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -800,7 +825,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -853,7 +878,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -906,7 +931,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -959,7 +984,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1012,7 +1037,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1053,7 +1078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1094,7 +1119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1135,7 +1160,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1176,7 +1201,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1217,7 +1242,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1252,7 +1277,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1293,7 +1318,7 @@
         <v>5840</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1418,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1430,7 +1455,7 @@
     <col min="10" max="10" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1488,8 +1513,14 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1523,8 +1554,10 @@
       <c r="K2">
         <v>364635</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1555,8 +1588,10 @@
       <c r="J3">
         <v>6935</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1587,8 +1622,10 @@
       <c r="J4">
         <v>4015</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1622,8 +1659,10 @@
       <c r="K5">
         <v>364635</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1663,8 +1702,12 @@
       <c r="M6">
         <v>15695</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T6" s="1"/>
+      <c r="U6" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1704,8 +1747,10 @@
       <c r="M7">
         <v>364635</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1751,8 +1796,10 @@
       <c r="O8">
         <v>9490</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1792,8 +1839,10 @@
       <c r="M9">
         <v>364635</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1838,6 +1887,9 @@
       </c>
       <c r="O10">
         <v>21535</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B45661-F4F9-644C-920E-2B8CB4242C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816F46E6-EB3C-E14E-8734-8E9CF82B5850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -236,13 +236,13 @@
     <t>You are eligible to get this vaccine if meeting on of the following conditions: Chronic liver disease (Hepatitis B or C, cirrhosis, fatty liver disease, alcoholic liver disease, autoimmune hepatitis, ALT or AST &gt; 2x ULN, HIV infection, Sexual exposure risk , Current or recent injection drug use, Household contacts, Healthcare worker, Dialysis, Incarceration, Travel to countries with high rates of hepatitis B</t>
   </si>
   <si>
-    <t>condition 1</t>
-  </si>
-  <si>
-    <t>condition 2</t>
-  </si>
-  <si>
     <t>You are NOT eligible to get this vaccine if meeting on of the following conditions: Laboratory evidence of immunity or disease, Born before 1980 (except for pregnant persons or healthcare workers), 2 doses of varicella vaccine at least 4 weeks apart, Diagnosis or history of varicella or herpes zoster by a healthcare provider, , , , , , </t>
+  </si>
+  <si>
+    <t>Eligibility</t>
+  </si>
+  <si>
+    <t>Ineligibility</t>
   </si>
 </sst>
 </file>
@@ -672,10 +672,10 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1514,10 +1514,10 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1704,7 +1704,7 @@
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816F46E6-EB3C-E14E-8734-8E9CF82B5850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EA7F8D-F0A3-CF48-A605-D3DE9C0B44CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,16 +233,28 @@
     <t>1 month</t>
   </si>
   <si>
-    <t>You are eligible to get this vaccine if meeting on of the following conditions: Chronic liver disease (Hepatitis B or C, cirrhosis, fatty liver disease, alcoholic liver disease, autoimmune hepatitis, ALT or AST &gt; 2x ULN, HIV infection, Sexual exposure risk , Current or recent injection drug use, Household contacts, Healthcare worker, Dialysis, Incarceration, Travel to countries with high rates of hepatitis B</t>
-  </si>
-  <si>
-    <t>You are NOT eligible to get this vaccine if meeting on of the following conditions: Laboratory evidence of immunity or disease, Born before 1980 (except for pregnant persons or healthcare workers), 2 doses of varicella vaccine at least 4 weeks apart, Diagnosis or history of varicella or herpes zoster by a healthcare provider, , , , , , </t>
-  </si>
-  <si>
     <t>Eligibility</t>
   </si>
   <si>
     <t>Ineligibility</t>
+  </si>
+  <si>
+    <t>You are NOT eligible to get this vaccine if meeting on of the following conditions: 
+Laboratory evidence of immunity or disease, 
+Born before 1980 (except for pregnant persons or healthcare workers), 
+2 doses of varicella vaccine at least 4 weeks apart, 
+Diagnosis or history of varicella or herpes zoster by a healthcare provider.</t>
+  </si>
+  <si>
+    <t>You are eligible to get this vaccine if meeting on of the following conditions: 
+Chronic liver disease, 
+HIV infection,
+ Sexual exposure risk , 
+Current or recent injection drug use,
+ Household contacts, 
+Healthcare worker, 
+Dialysis, Incarceration,
+ Travel to countries with high rates of hepatitis B</t>
   </si>
 </sst>
 </file>
@@ -284,9 +296,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +619,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:U1"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -672,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1445,14 +1460,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
     <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="21" max="21" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
@@ -1514,10 +1530,10 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1662,7 +1678,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1703,8 +1719,8 @@
         <v>15695</v>
       </c>
       <c r="T6" s="1"/>
-      <c r="U6" s="1" t="s">
-        <v>71</v>
+      <c r="U6" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1842,7 +1858,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1888,8 +1904,8 @@
       <c r="O10">
         <v>21535</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>70</v>
+      <c r="T10" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EA7F8D-F0A3-CF48-A605-D3DE9C0B44CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCC7503-1540-C04A-B2C8-800901CE723C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,14 +239,14 @@
     <t>Ineligibility</t>
   </si>
   <si>
-    <t>You are NOT eligible to get this vaccine if meeting on of the following conditions: 
+    <t xml:space="preserve">
 Laboratory evidence of immunity or disease, 
 Born before 1980 (except for pregnant persons or healthcare workers), 
 2 doses of varicella vaccine at least 4 weeks apart, 
 Diagnosis or history of varicella or herpes zoster by a healthcare provider.</t>
   </si>
   <si>
-    <t>You are eligible to get this vaccine if meeting on of the following conditions: 
+    <t xml:space="preserve">
 Chronic liver disease, 
 HIV infection,
  Sexual exposure risk , 
@@ -254,7 +254,7 @@
  Household contacts, 
 Healthcare worker, 
 Dialysis, Incarceration,
- Travel to countries with high rates of hepatitis B</t>
+ Travel to countries with high rates of hepatitis B.</t>
   </si>
 </sst>
 </file>
@@ -1460,8 +1460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1678,7 +1678,7 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="395" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCC7503-1540-C04A-B2C8-800901CE723C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448FF9A9-1550-BB43-867D-6FF48202E415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,13 +240,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-Laboratory evidence of immunity or disease, 
-Born before 1980 (except for pregnant persons or healthcare workers), 
-2 doses of varicella vaccine at least 4 weeks apart, 
-Diagnosis or history of varicella or herpes zoster by a healthcare provider.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 Chronic liver disease, 
 HIV infection,
  Sexual exposure risk , 
@@ -256,12 +249,42 @@
 Dialysis, Incarceration,
  Travel to countries with high rates of hepatitis B.</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Laboratory evidence of immunity or disease, 
+Born before 1980 (except for pregnant persons or healthcare workers), 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 doses of varicella </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vaccine at least 4 weeks apart, 
+Diagnosis or history of varicella or herpes zoster by a healthcare provider.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -274,6 +297,14 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1461,7 +1492,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1720,7 +1751,7 @@
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1905,7 +1936,7 @@
         <v>21535</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448FF9A9-1550-BB43-867D-6FF48202E415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD38EA5-9C87-5544-8884-05507233CD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="108">
   <si>
     <t>Vaccine</t>
   </si>
@@ -279,12 +279,114 @@
 Diagnosis or history of varicella or herpes zoster by a healthcare provider.</t>
     </r>
   </si>
+  <si>
+    <t>Pregnancy -&gt; 27-36 gestational weeks, Wound management (clean and minor wounds) -&gt; Administer if &gt; 10 years since last Tdap, Wound management (other) Administer if &gt; 5 years since last Tdap</t>
+  </si>
+  <si>
+    <t>condition 1</t>
+  </si>
+  <si>
+    <t>Alternate dosing 1</t>
+  </si>
+  <si>
+    <t>condition 2</t>
+  </si>
+  <si>
+    <t>Alternate dosing 2</t>
+  </si>
+  <si>
+    <t>condition 3</t>
+  </si>
+  <si>
+    <t>Alternate dosing 3</t>
+  </si>
+  <si>
+    <t>condition 4</t>
+  </si>
+  <si>
+    <t>Alternate dosing 4</t>
+  </si>
+  <si>
+    <t>condition 5</t>
+  </si>
+  <si>
+    <t>Alternate dosing 5</t>
+  </si>
+  <si>
+    <t>condition 6</t>
+  </si>
+  <si>
+    <t>Alternate dosing 6</t>
+  </si>
+  <si>
+    <t>condition 7</t>
+  </si>
+  <si>
+    <t>Alternate dosing 7</t>
+  </si>
+  <si>
+    <t>Unvacinated</t>
+  </si>
+  <si>
+    <t>3 doses -&gt; 4 weeks Spacing</t>
+  </si>
+  <si>
+    <t>1 dose monovalent Moderna</t>
+  </si>
+  <si>
+    <t>2 doses -&gt; 4 weeks Spacing</t>
+  </si>
+  <si>
+    <t>2 doses monovalent Moderna</t>
+  </si>
+  <si>
+    <t>1 dose -&gt; 4 weeks Spacing</t>
+  </si>
+  <si>
+    <t>3 doses monovalent Moderna or Pfizer</t>
+  </si>
+  <si>
+    <t>1 dose -&gt; 8 weeks Spacing</t>
+  </si>
+  <si>
+    <t>1 dose monovalent Pfizer</t>
+  </si>
+  <si>
+    <t>2 doses -&gt; 3 weeks, then 4 weeks Spacing</t>
+  </si>
+  <si>
+    <t>2 doses monovalent Pfizer</t>
+  </si>
+  <si>
+    <t>3 doses monovalent and 1 dose bivalent</t>
+  </si>
+  <si>
+    <t>1 dose -&gt; 2 months after last bivalent dose Spacing</t>
+  </si>
+  <si>
+    <t>Household or close contact of immunocompromised ,International travelers ,College students ,HIV with CD4 percentages ≥ 15% and CD4 count ≥ 200 for at least 6 months ,Healthcare worker (born after 1957)</t>
+  </si>
+  <si>
+    <t>2 doses, at least 4 weeks apart</t>
+  </si>
+  <si>
+    <t>27-45 years old</t>
+  </si>
+  <si>
+    <t>Based on shared clinical decision making</t>
+  </si>
+  <si>
+    <t>HIV, Immunocompromised</t>
+  </si>
+  <si>
+    <t>Always have 3 dose series</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -300,6 +402,19 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -327,12 +442,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -659,7 +776,7 @@
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,8 +840,50 @@
       <c r="U1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -771,7 +930,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -812,7 +971,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -871,7 +1030,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -924,7 +1083,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -977,7 +1136,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1030,7 +1189,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1083,7 +1242,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1124,7 +1283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1165,7 +1324,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1206,7 +1365,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1247,7 +1406,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1288,7 +1447,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1323,7 +1482,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1364,7 +1523,7 @@
         <v>5840</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1489,10 +1648,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1502,7 +1661,7 @@
     <col min="21" max="21" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1566,8 +1725,50 @@
       <c r="U1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1603,8 +1804,50 @@
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1638,7 +1881,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1669,10 +1912,12 @@
       <c r="J4">
         <v>4015</v>
       </c>
-      <c r="T4" s="1"/>
+      <c r="T4" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1708,8 +1953,14 @@
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" ht="80" x14ac:dyDescent="0.2">
+      <c r="V5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -1754,7 +2005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1797,7 +2048,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1845,8 +2096,20 @@
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1889,7 +2152,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="395" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" ht="395" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD38EA5-9C87-5544-8884-05507233CD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C9FCEE-DB0D-E444-9436-E3F03B3CB14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1650,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C9FCEE-DB0D-E444-9436-E3F03B3CB14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8317D93-7DBB-BD44-9B97-849DF9AB123D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="116">
   <si>
     <t>Vaccine</t>
   </si>
@@ -380,6 +380,30 @@
   </si>
   <si>
     <t>Always have 3 dose series</t>
+  </si>
+  <si>
+    <t>Previously only received PCV13</t>
+  </si>
+  <si>
+    <t>1 dose PCV20 or PPSV23 1 year after PCV13</t>
+  </si>
+  <si>
+    <t>Previously only received PPSV23</t>
+  </si>
+  <si>
+    <t>1 dose PCV20 or PCV15 1 year after PPSV23</t>
+  </si>
+  <si>
+    <t>Received both PCV13 and PPSV23 but PPSV23 was &lt; 65 years old</t>
+  </si>
+  <si>
+    <t>1 dose PCV20 or PPSV23 5 years after last dose</t>
+  </si>
+  <si>
+    <t>Received both PCV13 and PPSV23 and PPSV23 was ≥ 65 years old</t>
+  </si>
+  <si>
+    <t>1 dose PCV20 5 years after last dose</t>
   </si>
 </sst>
 </file>
@@ -1650,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2151,6 +2175,30 @@
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
+      <c r="V9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="10" spans="1:35" ht="395" x14ac:dyDescent="0.2">
       <c r="A10" t="s">

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8317D93-7DBB-BD44-9B97-849DF9AB123D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F6A786-BF32-394E-890F-B906FB17722A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="117">
   <si>
     <t>Vaccine</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>1 dose PCV20 5 years after last dose</t>
+  </si>
+  <si>
+    <t>See Conditions and Alternate Dosing</t>
   </si>
 </sst>
 </file>
@@ -1674,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1803,7 +1806,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F6A786-BF32-394E-890F-B906FB17722A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73CC83A-1F08-6442-976E-663AF340031F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="118">
   <si>
     <t>Vaccine</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>See Conditions and Alternate Dosing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At lest 19 years old - Annually </t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1681,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1882,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73CC83A-1F08-6442-976E-663AF340031F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF09836-B1BE-EE41-8B72-64494D83CF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,7 +796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
@@ -1681,7 +1681,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2104,25 +2104,25 @@
         <v>3285</v>
       </c>
       <c r="I8">
-        <v>9490</v>
+        <v>16425</v>
       </c>
       <c r="J8">
         <v>3285</v>
       </c>
       <c r="K8">
-        <v>364635</v>
+        <v>16425</v>
       </c>
       <c r="L8">
         <v>3285</v>
       </c>
       <c r="M8">
-        <v>9490</v>
+        <v>16425</v>
       </c>
       <c r="N8">
         <v>3285</v>
       </c>
       <c r="O8">
-        <v>9490</v>
+        <v>16425</v>
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF09836-B1BE-EE41-8B72-64494D83CF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B3018C-269C-6741-9A55-C5FC04CFF1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1681,7 +1681,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2104,7 +2104,7 @@
         <v>3285</v>
       </c>
       <c r="I8">
-        <v>16425</v>
+        <v>364635</v>
       </c>
       <c r="J8">
         <v>3285</v>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B3018C-269C-6741-9A55-C5FC04CFF1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A12C3C2-358B-B742-B22A-9D46B8652674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="peds" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="119">
   <si>
     <t>Vaccine</t>
   </si>
@@ -334,27 +334,15 @@
     <t>1 dose monovalent Moderna</t>
   </si>
   <si>
-    <t>2 doses -&gt; 4 weeks Spacing</t>
-  </si>
-  <si>
     <t>2 doses monovalent Moderna</t>
   </si>
   <si>
-    <t>1 dose -&gt; 4 weeks Spacing</t>
-  </si>
-  <si>
     <t>3 doses monovalent Moderna or Pfizer</t>
   </si>
   <si>
-    <t>1 dose -&gt; 8 weeks Spacing</t>
-  </si>
-  <si>
     <t>1 dose monovalent Pfizer</t>
   </si>
   <si>
-    <t>2 doses -&gt; 3 weeks, then 4 weeks Spacing</t>
-  </si>
-  <si>
     <t>2 doses monovalent Pfizer</t>
   </si>
   <si>
@@ -410,6 +398,21 @@
   </si>
   <si>
     <t xml:space="preserve">At lest 19 years old - Annually </t>
+  </si>
+  <si>
+    <t>3 doses -&gt; 4 weeks then 4 weeks then 8 weeks Spacing</t>
+  </si>
+  <si>
+    <t>2 doses -&gt; 4 weeks then 8 weeks Spacing</t>
+  </si>
+  <si>
+    <t>2 doses -&gt; 8 weeks Spacing</t>
+  </si>
+  <si>
+    <t>3 doses -&gt; 3 weeks, then 4 weeks, then 8 weeks Spacing</t>
+  </si>
+  <si>
+    <t>Pregnancy ,Severe immunocompromising condition ,HIV with CD4 percentage &lt; 15% or CD4 count &lt; 200</t>
   </si>
 </sst>
 </file>
@@ -1680,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1809,7 +1812,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -1844,37 +1847,37 @@
         <v>91</v>
       </c>
       <c r="Y2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
@@ -1885,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -1982,12 +1985,14 @@
         <v>364635</v>
       </c>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="U5" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="V5" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="80" x14ac:dyDescent="0.2">
@@ -2127,16 +2132,16 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.2">
@@ -2182,28 +2187,28 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="395" x14ac:dyDescent="0.2">

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A12C3C2-358B-B742-B22A-9D46B8652674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AB9556-B2BC-8A47-AA48-AA5FA6CB748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
   <si>
     <t>Vaccine</t>
   </si>
@@ -413,6 +413,27 @@
   </si>
   <si>
     <t>Pregnancy ,Severe immunocompromising condition ,HIV with CD4 percentage &lt; 15% or CD4 count &lt; 200</t>
+  </si>
+  <si>
+    <t>condition 8</t>
+  </si>
+  <si>
+    <t>Alternate dosing 8</t>
+  </si>
+  <si>
+    <t>condition 9</t>
+  </si>
+  <si>
+    <t>Alternate dosing 9</t>
+  </si>
+  <si>
+    <t>condition 10</t>
+  </si>
+  <si>
+    <t>Alternate dosing 10</t>
+  </si>
+  <si>
+    <t>1 dose bivalent Pfizer</t>
   </si>
 </sst>
 </file>
@@ -1681,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1694,7 +1715,7 @@
     <col min="21" max="21" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1800,8 +1821,26 @@
       <c r="AI1" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1879,8 +1918,17 @@
       <c r="AI2" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1914,7 +1962,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1950,7 +1998,7 @@
       </c>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1995,7 +2043,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2040,7 +2088,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -2083,7 +2131,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -2144,7 +2192,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2211,7 +2259,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="395" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" ht="395" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AB9556-B2BC-8A47-AA48-AA5FA6CB748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D856928-4F75-D142-898A-34A52B99DB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1704,8 +1704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AJ6" sqref="AJ6"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D856928-4F75-D142-898A-34A52B99DB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E49AC0-EC5A-374A-8E53-30472294C262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="peds" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="126">
   <si>
     <t>Vaccine</t>
   </si>
@@ -818,10 +818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -830,7 +830,7 @@
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,8 +936,26 @@
       <c r="AI1" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -984,7 +1002,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1025,7 +1043,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1084,7 +1102,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1137,7 +1155,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1190,7 +1208,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1243,7 +1261,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1296,7 +1314,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1337,7 +1355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1378,7 +1396,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1419,7 +1437,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1460,7 +1478,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1501,7 +1519,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1536,7 +1554,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1577,7 +1595,7 @@
         <v>5840</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1704,8 +1722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AJ1" sqref="AJ1:AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E49AC0-EC5A-374A-8E53-30472294C262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E8D4E2-98C6-644F-93C0-9DAB7B7CE598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="144">
   <si>
     <t>Vaccine</t>
   </si>
@@ -435,12 +435,66 @@
   <si>
     <t>1 dose bivalent Pfizer</t>
   </si>
+  <si>
+    <t>2 doses bivalent Pfizer</t>
+  </si>
+  <si>
+    <t>2 doses -&gt; 4 weeks then 8 weeks spacing</t>
+  </si>
+  <si>
+    <t>1 dose -&gt;  8 weeks spacing</t>
+  </si>
+  <si>
+    <t>3 doses bivalent Pfizer</t>
+  </si>
+  <si>
+    <t>condition 11</t>
+  </si>
+  <si>
+    <t>Alternate dosing 11</t>
+  </si>
+  <si>
+    <t>condition 12</t>
+  </si>
+  <si>
+    <t>Alternate dosing 12</t>
+  </si>
+  <si>
+    <t>condition 13</t>
+  </si>
+  <si>
+    <t>Alternate dosing 13</t>
+  </si>
+  <si>
+    <t>condition 14</t>
+  </si>
+  <si>
+    <t>Alternate dosing 14</t>
+  </si>
+  <si>
+    <t>1 dose bivalent Moderna</t>
+  </si>
+  <si>
+    <t>2 doses bivalent Moderna</t>
+  </si>
+  <si>
+    <t>3 doses bivalent Moderna</t>
+  </si>
+  <si>
+    <t>3 doses -&gt; 4 weeks then 4 weeks then 8 weeks spacing</t>
+  </si>
+  <si>
+    <t>1 dose -&gt; 8 weeks spacing</t>
+  </si>
+  <si>
+    <t>Immunocompromised Patients:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -475,6 +529,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -496,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -504,6 +564,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AW18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1:AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -830,7 +891,7 @@
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -954,8 +1015,32 @@
       <c r="AO1" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1002,7 +1087,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1043,7 +1128,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1102,7 +1187,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1155,7 +1240,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1208,7 +1293,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1261,7 +1346,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1314,7 +1399,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1355,7 +1440,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1396,7 +1481,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1437,7 +1522,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1478,7 +1563,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1519,7 +1604,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1554,7 +1639,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1595,7 +1680,7 @@
         <v>5840</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1720,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AW10"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1:AP1"/>
+    <sheetView topLeftCell="U1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AP1" sqref="AP1:AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1733,7 +1818,7 @@
     <col min="21" max="21" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1857,8 +1942,32 @@
       <c r="AO1" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AP1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1894,59 +2003,92 @@
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="3" t="s">
+      <c r="V2" t="s">
+        <v>143</v>
+      </c>
+      <c r="W2" t="s">
+        <v>143</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AM2" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="AN2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1980,7 +2122,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2016,7 +2158,7 @@
       </c>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2061,7 +2203,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:41" ht="80" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2106,7 +2248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -2149,7 +2291,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -2210,7 +2352,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -2277,7 +2419,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:41" ht="395" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" ht="395" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E8D4E2-98C6-644F-93C0-9DAB7B7CE598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1437F258-8032-F249-854A-A26C6EE01053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="peds" sheetId="1" r:id="rId1"/>
@@ -325,9 +325,6 @@
     <t>Alternate dosing 7</t>
   </si>
   <si>
-    <t>Unvacinated</t>
-  </si>
-  <si>
     <t>3 doses -&gt; 4 weeks Spacing</t>
   </si>
   <si>
@@ -488,6 +485,9 @@
   </si>
   <si>
     <t>Immunocompromised Patients:</t>
+  </si>
+  <si>
+    <t>-Unvacinated</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -565,6 +565,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AP1" sqref="AP1:AX1"/>
     </sheetView>
   </sheetViews>
@@ -998,46 +999,46 @@
         <v>88</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="AP1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
@@ -1807,8 +1808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AW10"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1:AX1"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1925,46 +1926,46 @@
         <v>88</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="AP1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
@@ -1978,7 +1979,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -2004,88 +2005,88 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" t="s">
+        <v>142</v>
+      </c>
+      <c r="W2" t="s">
+        <v>142</v>
+      </c>
+      <c r="X2" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="W2" t="s">
-        <v>143</v>
-      </c>
-      <c r="X2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AC2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AE2" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AG2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AI2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AK2" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="AL2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AM2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AO2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AP2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="AR2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AU2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW2" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
@@ -2096,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -2194,13 +2195,13 @@
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:49" ht="80" x14ac:dyDescent="0.2">
@@ -2340,16 +2341,16 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="W8" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
@@ -2395,28 +2396,28 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="W9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:49" ht="395" x14ac:dyDescent="0.2">

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1437F258-8032-F249-854A-A26C6EE01053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC6A96E-B569-F740-A0DF-A24B316D736E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,7 +487,7 @@
     <t>Immunocompromised Patients:</t>
   </si>
   <si>
-    <t>-Unvacinated</t>
+    <t>- Unvacinated</t>
   </si>
 </sst>
 </file>
@@ -1809,7 +1809,7 @@
   <dimension ref="A1:AW10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC6A96E-B569-F740-A0DF-A24B316D736E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342079C2-DF6F-7E4C-8A89-CBEEE2578378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,24 +328,6 @@
     <t>3 doses -&gt; 4 weeks Spacing</t>
   </si>
   <si>
-    <t>1 dose monovalent Moderna</t>
-  </si>
-  <si>
-    <t>2 doses monovalent Moderna</t>
-  </si>
-  <si>
-    <t>3 doses monovalent Moderna or Pfizer</t>
-  </si>
-  <si>
-    <t>1 dose monovalent Pfizer</t>
-  </si>
-  <si>
-    <t>2 doses monovalent Pfizer</t>
-  </si>
-  <si>
-    <t>3 doses monovalent and 1 dose bivalent</t>
-  </si>
-  <si>
     <t>1 dose -&gt; 2 months after last bivalent dose Spacing</t>
   </si>
   <si>
@@ -430,21 +412,12 @@
     <t>Alternate dosing 10</t>
   </si>
   <si>
-    <t>1 dose bivalent Pfizer</t>
-  </si>
-  <si>
-    <t>2 doses bivalent Pfizer</t>
-  </si>
-  <si>
     <t>2 doses -&gt; 4 weeks then 8 weeks spacing</t>
   </si>
   <si>
     <t>1 dose -&gt;  8 weeks spacing</t>
   </si>
   <si>
-    <t>3 doses bivalent Pfizer</t>
-  </si>
-  <si>
     <t>condition 11</t>
   </si>
   <si>
@@ -469,15 +442,6 @@
     <t>Alternate dosing 14</t>
   </si>
   <si>
-    <t>1 dose bivalent Moderna</t>
-  </si>
-  <si>
-    <t>2 doses bivalent Moderna</t>
-  </si>
-  <si>
-    <t>3 doses bivalent Moderna</t>
-  </si>
-  <si>
     <t>3 doses -&gt; 4 weeks then 4 weeks then 8 weeks spacing</t>
   </si>
   <si>
@@ -488,6 +452,42 @@
   </si>
   <si>
     <t>- Unvacinated</t>
+  </si>
+  <si>
+    <t>- 1 dose monovalent Moderna</t>
+  </si>
+  <si>
+    <t>- 2 doses monovalent Moderna</t>
+  </si>
+  <si>
+    <t>- 3 doses monovalent Moderna or Pfizer</t>
+  </si>
+  <si>
+    <t>- 1 dose monovalent Pfizer</t>
+  </si>
+  <si>
+    <t>- 2 doses monovalent Pfizer</t>
+  </si>
+  <si>
+    <t>- 3 doses monovalent and 1 dose bivalent</t>
+  </si>
+  <si>
+    <t>- 1 dose bivalent Pfizer</t>
+  </si>
+  <si>
+    <t>- 2 doses bivalent Pfizer</t>
+  </si>
+  <si>
+    <t>- 3 doses bivalent Pfizer</t>
+  </si>
+  <si>
+    <t>- 1 dose bivalent Moderna</t>
+  </si>
+  <si>
+    <t>- 2 doses bivalent Moderna</t>
+  </si>
+  <si>
+    <t>- 3 doses bivalent Moderna</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -566,6 +566,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,46 +1000,46 @@
         <v>88</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="AT1" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
@@ -1809,7 +1810,7 @@
   <dimension ref="A1:AW10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+      <selection activeCell="AX2" sqref="AX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1926,46 +1927,46 @@
         <v>88</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AP1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="AT1" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="AU1" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
@@ -1979,7 +1980,7 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -2005,88 +2006,88 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="W2" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="Z2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>124</v>
+      <c r="AL2" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AP2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="AQ2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR2" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>138</v>
+      <c r="AT2" s="7" t="s">
+        <v>142</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV2" s="5" t="s">
-        <v>139</v>
+        <v>118</v>
+      </c>
+      <c r="AV2" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
@@ -2097,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -2195,13 +2196,13 @@
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:49" ht="80" x14ac:dyDescent="0.2">
@@ -2341,16 +2342,16 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
@@ -2396,28 +2397,28 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:49" ht="395" x14ac:dyDescent="0.2">

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342079C2-DF6F-7E4C-8A89-CBEEE2578378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3DAB94-581E-B44A-8079-4EE2AE5D9DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="144">
   <si>
     <t>Vaccine</t>
   </si>
@@ -1810,7 +1810,7 @@
   <dimension ref="A1:AW10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2008,9 +2008,6 @@
       <c r="V2" t="s">
         <v>130</v>
       </c>
-      <c r="W2" t="s">
-        <v>130</v>
-      </c>
       <c r="X2" s="6" t="s">
         <v>131</v>
       </c>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3DAB94-581E-B44A-8079-4EE2AE5D9DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46CF8C7-7660-5D48-92FD-47440DA3B769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="145">
   <si>
     <t>Vaccine</t>
   </si>
@@ -488,6 +488,9 @@
   </si>
   <si>
     <t>- 3 doses bivalent Moderna</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1810,7 +1813,7 @@
   <dimension ref="A1:AW10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2008,6 +2011,9 @@
       <c r="V2" t="s">
         <v>130</v>
       </c>
+      <c r="W2" t="s">
+        <v>144</v>
+      </c>
       <c r="X2" s="6" t="s">
         <v>131</v>
       </c>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46CF8C7-7660-5D48-92FD-47440DA3B769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81BD876-F7F6-9645-9E3E-DA33A3BA8681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="150">
   <si>
     <t>Vaccine</t>
   </si>
@@ -197,40 +197,13 @@
     <t>1 month (Bexsero), 6 months (Trumenba)</t>
   </si>
   <si>
-    <t>At lest 19 years old</t>
-  </si>
-  <si>
-    <t>At lest 11 years old</t>
-  </si>
-  <si>
     <t>Zoster (Shingles)</t>
   </si>
   <si>
-    <t>At lest 50 years old</t>
-  </si>
-  <si>
     <t>HPV</t>
   </si>
   <si>
-    <t>At lest 9 years old</t>
-  </si>
-  <si>
-    <t>5 months if first dose was between 9-14 years old, 1 month if first dose was 15 years or older</t>
-  </si>
-  <si>
-    <t>6 months (only if older than 15 years old for first dose)</t>
-  </si>
-  <si>
     <t>Pneumococcal</t>
-  </si>
-  <si>
-    <t>At lest 65 years old</t>
-  </si>
-  <si>
-    <t>1 year (if PCV15 used)</t>
-  </si>
-  <si>
-    <t>1 month</t>
   </si>
   <si>
     <t>Eligibility</t>
@@ -373,12 +346,6 @@
     <t>1 dose PCV20 5 years after last dose</t>
   </si>
   <si>
-    <t>See Conditions and Alternate Dosing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At lest 19 years old - Annually </t>
-  </si>
-  <si>
     <t>3 doses -&gt; 4 weeks then 4 weeks then 8 weeks Spacing</t>
   </si>
   <si>
@@ -491,6 +458,54 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>4 months spacing</t>
+  </si>
+  <si>
+    <t>1 month spacing</t>
+  </si>
+  <si>
+    <t>1 year spacing (if PCV15 used)</t>
+  </si>
+  <si>
+    <t>5 months spacing if first dose was between 9-14 years old, 1 month spacing if first dose was 15 years or older</t>
+  </si>
+  <si>
+    <t>2 months spacing</t>
+  </si>
+  <si>
+    <t>4 weeks spacing</t>
+  </si>
+  <si>
+    <t>6 months spacing (only if older than 15 years old for first dose)</t>
+  </si>
+  <si>
+    <t>6 months spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atleast 19 years old - Annually </t>
+  </si>
+  <si>
+    <t>Atleast 19 years old -&gt; 1 dose bivalent</t>
+  </si>
+  <si>
+    <t>Atleast 11 years old</t>
+  </si>
+  <si>
+    <t>Atleast 19 years old</t>
+  </si>
+  <si>
+    <t>Atleast 50 years old</t>
+  </si>
+  <si>
+    <t>Atleast 9 years old</t>
+  </si>
+  <si>
+    <t>Atleast 65 years old</t>
+  </si>
+  <si>
+    <t>Atleast 65 years old -&gt; 2 doses bivalent</t>
   </si>
 </sst>
 </file>
@@ -955,94 +970,94 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AT1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AU1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AV1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AW1" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
@@ -1810,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
-  <dimension ref="A1:AW10"/>
+  <dimension ref="A1:AW11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1882,94 +1897,94 @@
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AT1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AU1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AV1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AW1" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
@@ -1977,13 +1992,13 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -1995,102 +2010,102 @@
         <v>23</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6935</v>
       </c>
       <c r="I2">
-        <v>364635</v>
+        <v>23360</v>
       </c>
       <c r="J2">
         <v>6935</v>
       </c>
       <c r="K2">
-        <v>364635</v>
+        <v>23360</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" t="s">
+        <v>119</v>
+      </c>
+      <c r="W2" t="s">
+        <v>133</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR2" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="W2" t="s">
-        <v>144</v>
-      </c>
-      <c r="X2" s="6" t="s">
+      <c r="AS2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="Y2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AU2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV2" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AW2" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AV2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
@@ -2101,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
         <v>23</v>
@@ -2135,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -2159,7 +2174,7 @@
         <v>4015</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U4" s="1"/>
     </row>
@@ -2171,7 +2186,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -2199,13 +2214,13 @@
       </c>
       <c r="T5" s="1"/>
       <c r="U5" s="4" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:49" ht="80" x14ac:dyDescent="0.2">
@@ -2216,10 +2231,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
         <v>23</v>
@@ -2250,21 +2265,21 @@
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -2298,19 +2313,19 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2345,30 +2360,30 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -2400,28 +2415,28 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:49" ht="395" x14ac:dyDescent="0.2">
@@ -2432,13 +2447,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>141</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2471,7 +2486,134 @@
         <v>21535</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>23361</v>
+      </c>
+      <c r="I11">
+        <v>364635</v>
+      </c>
+      <c r="J11">
+        <v>23361</v>
+      </c>
+      <c r="K11">
+        <v>364635</v>
+      </c>
+      <c r="L11">
+        <v>23361</v>
+      </c>
+      <c r="M11">
+        <v>364635</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" t="s">
+        <v>119</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL11" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM11" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN11" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP11" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW11" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81BD876-F7F6-9645-9E3E-DA33A3BA8681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FCAA0D-0A7F-8240-9F4F-2C71FE8A5A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="151">
   <si>
     <t>Vaccine</t>
   </si>
@@ -506,6 +506,9 @@
   </si>
   <si>
     <t>Atleast 65 years old -&gt; 2 doses bivalent</t>
+  </si>
+  <si>
+    <t>COVID-19.</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1831,7 @@
   <dimension ref="A1:AW11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2491,7 +2494,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="B11">
         <v>2</v>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FCAA0D-0A7F-8240-9F4F-2C71FE8A5A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6DDDB8-A9CE-6F4B-AA87-77BD974A79BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="155">
   <si>
     <t>Vaccine</t>
   </si>
@@ -509,6 +509,18 @@
   </si>
   <si>
     <t>COVID-19.</t>
+  </si>
+  <si>
+    <t>Schdeule</t>
+  </si>
+  <si>
+    <t>Routine</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>Conditional</t>
   </si>
 </sst>
 </file>
@@ -902,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW18"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AP1" sqref="AP1:AX1"/>
+    <sheetView topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AS18" sqref="AS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -914,7 +926,7 @@
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1062,8 +1074,11 @@
       <c r="AW1" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AY1" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1110,7 +1125,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1151,7 +1166,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1210,7 +1225,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1263,7 +1278,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1316,7 +1331,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1369,7 +1384,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1422,7 +1437,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1463,7 +1478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1504,7 +1519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1545,7 +1560,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1586,7 +1601,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1627,7 +1642,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1662,7 +1677,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1703,7 +1718,7 @@
         <v>5840</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1828,10 +1843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
-  <dimension ref="A1:AW11"/>
+  <dimension ref="A1:AX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AH10" sqref="AH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1841,7 +1856,7 @@
     <col min="21" max="21" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1989,8 +2004,11 @@
       <c r="AW1" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX1" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2110,8 +2128,11 @@
       <c r="AW2" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX2" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -2144,8 +2165,11 @@
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2180,8 +2204,11 @@
         <v>65</v>
       </c>
       <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2225,8 +2252,11 @@
       <c r="W5" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="1:49" ht="80" x14ac:dyDescent="0.2">
+      <c r="AX5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2270,8 +2300,11 @@
       <c r="U6" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -2313,8 +2346,11 @@
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX7" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -2374,8 +2410,11 @@
       <c r="Y8" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX8" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -2441,8 +2480,11 @@
       <c r="AC9" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:49" ht="395" x14ac:dyDescent="0.2">
+      <c r="AX9" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" ht="395" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2491,8 +2533,11 @@
       <c r="T10" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="AX10" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>150</v>
       </c>
@@ -2618,6 +2663,9 @@
       <c r="AW11" s="3" t="s">
         <v>118</v>
       </c>
+      <c r="AX11" s="5" t="s">
+        <v>152</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6DDDB8-A9CE-6F4B-AA87-77BD974A79BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFEFFCE-807A-2146-A402-B39B70F5BA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="peds" sheetId="1" r:id="rId1"/>
@@ -511,9 +511,6 @@
     <t>COVID-19.</t>
   </si>
   <si>
-    <t>Schdeule</t>
-  </si>
-  <si>
     <t>Routine</t>
   </si>
   <si>
@@ -521,13 +518,16 @@
   </si>
   <si>
     <t>Conditional</t>
+  </si>
+  <si>
+    <t>Schedule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -568,6 +568,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00A67D"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -589,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -600,6 +606,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,8 +923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY18"/>
   <sheetViews>
-    <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AS18" sqref="AS18"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -926,7 +933,7 @@
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1074,8 +1081,8 @@
       <c r="AW1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AY1" s="5" t="s">
-        <v>151</v>
+      <c r="AY1" s="8" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.2">
@@ -1845,8 +1852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AH10" sqref="AH10"/>
+    <sheetView topLeftCell="AF1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2005,7 +2012,7 @@
         <v>116</v>
       </c>
       <c r="AX1" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
@@ -2129,7 +2136,7 @@
         <v>118</v>
       </c>
       <c r="AX2" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
@@ -2166,7 +2173,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="AX3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
@@ -2205,7 +2212,7 @@
       </c>
       <c r="U4" s="1"/>
       <c r="AX4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
@@ -2253,7 +2260,7 @@
         <v>83</v>
       </c>
       <c r="AX5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:50" ht="80" x14ac:dyDescent="0.2">
@@ -2301,7 +2308,7 @@
         <v>64</v>
       </c>
       <c r="AX6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
@@ -2347,7 +2354,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="AX7" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
@@ -2411,7 +2418,7 @@
         <v>87</v>
       </c>
       <c r="AX8" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
@@ -2481,7 +2488,7 @@
         <v>95</v>
       </c>
       <c r="AX9" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:50" ht="395" x14ac:dyDescent="0.2">
@@ -2534,7 +2541,7 @@
         <v>63</v>
       </c>
       <c r="AX10" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
@@ -2664,7 +2671,7 @@
         <v>118</v>
       </c>
       <c r="AX11" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFEFFCE-807A-2146-A402-B39B70F5BA46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7165C301-0FDC-0443-BEB4-A08BC3F3190B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="peds" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -568,12 +568,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF00A67D"/>
-      <name val="Monaco"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -595,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -606,7 +600,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -923,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+    <sheetView topLeftCell="AG1" workbookViewId="0">
       <selection activeCell="AY1" sqref="AY1"/>
     </sheetView>
   </sheetViews>
@@ -933,7 +926,7 @@
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1074,7 @@
       <c r="AW1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AY1" s="8" t="s">
+      <c r="AY1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1852,7 +1845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AX11"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7165C301-0FDC-0443-BEB4-A08BC3F3190B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C86EE2-AEFC-0749-A813-EA847E42C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="peds" sheetId="1" r:id="rId1"/>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY18"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AY1" sqref="AY1"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AV12" sqref="AV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1845,7 +1845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="AF1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C86EE2-AEFC-0749-A813-EA847E42C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC5963C-7281-9F44-A625-ACB20ABDF4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="peds" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
     <t>Conditional</t>
   </si>
   <si>
-    <t>Schedule</t>
+    <t>schedule</t>
   </si>
 </sst>
 </file>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
-      <selection activeCell="AV12" sqref="AV12"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AQ10" sqref="AQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1845,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AX11"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AX1" sqref="AX1"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC5963C-7281-9F44-A625-ACB20ABDF4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119B27C4-CA24-FF4E-91AF-B6286E94A098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="peds" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
     <t>Conditional</t>
   </si>
   <si>
-    <t>schedule</t>
+    <t>Schedule</t>
   </si>
 </sst>
 </file>
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY18"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AQ10" sqref="AQ10"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1845,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+    <sheetView topLeftCell="AF1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119B27C4-CA24-FF4E-91AF-B6286E94A098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E35934-BAB2-6649-AF9A-C7464DD5B464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="peds" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="156">
   <si>
     <t>Vaccine</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>Schedule</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -916,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AY1" sqref="AY1"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AY24" sqref="AY24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1124,6 +1127,9 @@
       <c r="O2">
         <v>540</v>
       </c>
+      <c r="AY2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1165,6 +1171,9 @@
       <c r="M3">
         <v>120</v>
       </c>
+      <c r="AY3" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1224,6 +1233,9 @@
       <c r="S4">
         <v>2190</v>
       </c>
+      <c r="AY4" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1277,6 +1289,9 @@
       <c r="Q5">
         <v>450</v>
       </c>
+      <c r="AY5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1330,6 +1345,9 @@
       <c r="Q6">
         <v>450</v>
       </c>
+      <c r="AY6" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1383,6 +1401,9 @@
       <c r="Q7">
         <v>450</v>
       </c>
+      <c r="AY7" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1436,6 +1457,9 @@
       <c r="Q8">
         <v>2190</v>
       </c>
+      <c r="AY8" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1477,6 +1501,9 @@
       <c r="M9">
         <v>28</v>
       </c>
+      <c r="AY9" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1518,6 +1545,9 @@
       <c r="M10">
         <v>28</v>
       </c>
+      <c r="AY10" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1559,6 +1589,9 @@
       <c r="M11">
         <v>2190</v>
       </c>
+      <c r="AY11" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1600,6 +1633,9 @@
       <c r="M12">
         <v>2190</v>
       </c>
+      <c r="AY12" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1641,6 +1677,9 @@
       <c r="M13">
         <v>540</v>
       </c>
+      <c r="AY13" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1676,6 +1715,9 @@
       <c r="K14">
         <v>4380</v>
       </c>
+      <c r="AY14" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1717,6 +1759,9 @@
       <c r="M15">
         <v>5840</v>
       </c>
+      <c r="AY15" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1758,8 +1803,11 @@
       <c r="M16">
         <v>6205</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AY16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1799,8 +1847,11 @@
       <c r="M17">
         <v>6570</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="AY17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1833,6 +1884,9 @@
       </c>
       <c r="M18">
         <v>180</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1845,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AX11"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AX1" sqref="AX1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AX2" sqref="AX2:AX12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E35934-BAB2-6649-AF9A-C7464DD5B464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657FAD92-A31E-B242-80BA-69766F54DE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="peds" sheetId="1" r:id="rId1"/>
@@ -917,19 +917,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:AX18"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AY24" sqref="AY24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -937,151 +937,151 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AY1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1089,49 +1089,49 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>6570</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>30</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>60</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>180</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>540</v>
       </c>
-      <c r="AY2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1139,43 +1139,43 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>27</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
         <v>42</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>240</v>
-      </c>
-      <c r="J3">
-        <v>60</v>
       </c>
       <c r="K3">
         <v>60</v>
       </c>
       <c r="L3">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M3">
         <v>120</v>
       </c>
-      <c r="AY3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1183,61 +1183,61 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>42</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2190</v>
-      </c>
-      <c r="J4">
-        <v>60</v>
       </c>
       <c r="K4">
         <v>60</v>
       </c>
       <c r="L4">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M4">
         <v>120</v>
       </c>
       <c r="N4">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="O4">
         <v>180</v>
       </c>
       <c r="P4">
+        <v>180</v>
+      </c>
+      <c r="Q4">
         <v>450</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>540</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1460</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2190</v>
       </c>
-      <c r="AY4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1245,55 +1245,55 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5">
         <v>42</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1800</v>
-      </c>
-      <c r="J5">
-        <v>60</v>
       </c>
       <c r="K5">
         <v>60</v>
       </c>
       <c r="L5">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M5">
         <v>120</v>
       </c>
       <c r="N5">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="O5">
         <v>180</v>
       </c>
       <c r="P5">
+        <v>180</v>
+      </c>
+      <c r="Q5">
         <v>360</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>450</v>
       </c>
-      <c r="AY5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1301,55 +1301,55 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6">
         <v>42</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1770</v>
-      </c>
-      <c r="J6">
-        <v>60</v>
       </c>
       <c r="K6">
         <v>60</v>
       </c>
       <c r="L6">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M6">
         <v>120</v>
       </c>
       <c r="N6">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="O6">
         <v>180</v>
       </c>
       <c r="P6">
+        <v>180</v>
+      </c>
+      <c r="Q6">
         <v>360</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>450</v>
       </c>
-      <c r="AY6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1357,55 +1357,55 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7">
         <v>730</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1770</v>
-      </c>
-      <c r="J7">
-        <v>60</v>
       </c>
       <c r="K7">
         <v>60</v>
       </c>
       <c r="L7">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M7">
         <v>120</v>
       </c>
       <c r="N7">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="O7">
         <v>180</v>
       </c>
       <c r="P7">
+        <v>180</v>
+      </c>
+      <c r="Q7">
         <v>360</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>450</v>
       </c>
-      <c r="AY7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1413,55 +1413,55 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8">
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8">
         <v>42</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>6570</v>
-      </c>
-      <c r="J8">
-        <v>60</v>
       </c>
       <c r="K8">
         <v>60</v>
       </c>
       <c r="L8">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="M8">
         <v>120</v>
       </c>
       <c r="N8">
+        <v>120</v>
+      </c>
+      <c r="O8">
         <v>180</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>540</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1460</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2190</v>
       </c>
-      <c r="AY8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1469,43 +1469,43 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
       <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9">
         <v>180</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>6570</v>
-      </c>
-      <c r="J9">
-        <v>180</v>
       </c>
       <c r="K9">
         <v>180</v>
       </c>
       <c r="L9">
+        <v>180</v>
+      </c>
+      <c r="M9">
         <v>21</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>28</v>
       </c>
-      <c r="AY9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1513,43 +1513,43 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10">
         <v>180</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>6570</v>
-      </c>
-      <c r="J10">
-        <v>180</v>
       </c>
       <c r="K10">
         <v>180</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="M10">
         <v>28</v>
       </c>
-      <c r="AY10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1557,43 +1557,43 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" t="s">
         <v>23</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11">
         <v>360</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>6570</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>360</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>450</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>1460</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2190</v>
       </c>
-      <c r="AY11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1601,43 +1601,43 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
       <c r="F12" t="s">
         <v>23</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12">
         <v>360</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>6570</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>360</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>450</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>1460</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2190</v>
       </c>
-      <c r="AY12" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -1645,43 +1645,43 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
       <c r="F13" t="s">
         <v>23</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13">
         <v>360</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>6570</v>
-      </c>
-      <c r="J13">
-        <v>360</v>
       </c>
       <c r="K13">
         <v>360</v>
       </c>
       <c r="L13">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="M13">
         <v>540</v>
       </c>
-      <c r="AY13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1689,11 +1689,11 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
-        <v>23</v>
-      </c>
       <c r="E14" t="s">
         <v>23</v>
       </c>
@@ -1703,23 +1703,23 @@
       <c r="G14" t="s">
         <v>23</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14">
         <v>4015</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>6570</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4015</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>4380</v>
       </c>
-      <c r="AY14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1727,43 +1727,43 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
       <c r="F15" t="s">
         <v>23</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15">
         <v>4015</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>6570</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>4015</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>4380</v>
-      </c>
-      <c r="L15">
-        <v>5840</v>
       </c>
       <c r="M15">
         <v>5840</v>
       </c>
-      <c r="AY15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1771,43 +1771,43 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>52</v>
       </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
       <c r="F16" t="s">
         <v>23</v>
       </c>
       <c r="G16" t="s">
         <v>23</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16">
         <v>4015</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>6570</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>4015</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>4380</v>
-      </c>
-      <c r="L16">
-        <v>6205</v>
       </c>
       <c r="M16">
         <v>6205</v>
       </c>
-      <c r="AY16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>6205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1815,43 +1815,43 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" t="s">
         <v>48</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>54</v>
       </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
       <c r="F17" t="s">
         <v>23</v>
       </c>
       <c r="G17" t="s">
         <v>23</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17">
         <v>4015</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>6570</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>4015</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>4380</v>
-      </c>
-      <c r="L17">
-        <v>6570</v>
       </c>
       <c r="M17">
         <v>6570</v>
       </c>
-      <c r="AY17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>6570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1859,34 +1859,34 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" t="s">
         <v>56</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>57</v>
       </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
       <c r="F18" t="s">
         <v>23</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18">
         <v>5840</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>6570</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>30</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>180</v>
-      </c>
-      <c r="AY18" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1899,15 +1899,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AX2" sqref="AX2:AX12"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" customWidth="1"/>
-    <col min="21" max="21" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
@@ -1917,149 +1917,149 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AW1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
@@ -2069,12 +2069,12 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" t="s">
         <v>143</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
       <c r="E2" t="s">
         <v>23</v>
       </c>
@@ -2084,106 +2084,106 @@
       <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
         <v>6935</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>23360</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>6935</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>23360</v>
       </c>
-      <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" t="s">
+      <c r="V2" s="1"/>
+      <c r="W2" t="s">
         <v>119</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>133</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AA2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AC2" s="3" t="s">
+      <c r="AD2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AE2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AK2" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AL2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AL2" s="6" t="s">
+      <c r="AM2" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AM2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="AO2" s="3" t="s">
+      <c r="AP2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AP2" s="6" t="s">
+      <c r="AQ2" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AS2" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AS2" s="3" t="s">
+      <c r="AT2" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AU2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AU2" s="3" t="s">
+      <c r="AV2" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AV2" s="7" t="s">
+      <c r="AW2" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AX2" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
@@ -2194,11 +2194,11 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" t="s">
         <v>142</v>
       </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
       <c r="E3" t="s">
         <v>23</v>
       </c>
@@ -2208,20 +2208,20 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
         <v>6935</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>364635</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>6935</v>
       </c>
-      <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="AX3" t="s">
-        <v>152</v>
-      </c>
+      <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2231,11 +2231,11 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" t="s">
         <v>144</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4" t="s">
         <v>23</v>
       </c>
@@ -2245,22 +2245,22 @@
       <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4">
         <v>4015</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>364635</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>4015</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="U4" s="1"/>
-      <c r="AX4" t="s">
-        <v>153</v>
-      </c>
+      <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2270,11 +2270,11 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" t="s">
         <v>145</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" t="s">
         <v>23</v>
       </c>
@@ -2284,30 +2284,30 @@
       <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5">
         <v>6935</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>24090</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>6935</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>364635</v>
       </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="1"/>
+      <c r="V5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="X5" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:50" ht="80" x14ac:dyDescent="0.2">
@@ -2318,44 +2318,44 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" t="s">
         <v>145</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>139</v>
       </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" t="s">
         <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6">
         <v>6935</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>15695</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>6935</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>364635</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>6935</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>15695</v>
       </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="2" t="s">
+      <c r="U6" s="1"/>
+      <c r="V6" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
@@ -2365,44 +2365,44 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
         <v>146</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>138</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" t="s">
         <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7">
         <v>18250</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>364635</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>18250</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>364635</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>18250</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>364635</v>
       </c>
-      <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-      <c r="AX7" s="5" t="s">
-        <v>151</v>
-      </c>
+      <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2411,61 +2411,61 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
         <v>147</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>137</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>140</v>
       </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
       <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8">
         <v>3285</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>364635</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>3285</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>16425</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3285</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>16425</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>3285</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>16425</v>
       </c>
-      <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="3" t="s">
+      <c r="V8" s="1"/>
+      <c r="W8" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Y8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
@@ -2475,67 +2475,67 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" t="s">
         <v>148</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>136</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
       <c r="F9" t="s">
         <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9">
         <v>23725</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>364635</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>23725</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>364635</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>24090</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>364635</v>
       </c>
-      <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="3" t="s">
+      <c r="V9" s="1"/>
+      <c r="W9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Y9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Z9" s="3" t="s">
+      <c r="AA9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AC9" s="3" t="s">
+      <c r="AD9" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="AX9" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:50" ht="395" x14ac:dyDescent="0.2">
@@ -2545,50 +2545,50 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
         <v>145</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>135</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>141</v>
       </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
       <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10">
         <v>6935</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>21535</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>6935</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>364635</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>6935</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>21535</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>6935</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>21535</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="AX10" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
@@ -2598,127 +2598,127 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" t="s">
         <v>149</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>134</v>
       </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" t="s">
         <v>23</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11">
         <v>23361</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>364635</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>23361</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>364635</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>23361</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>364635</v>
       </c>
-      <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" t="s">
+      <c r="V11" s="1"/>
+      <c r="W11" t="s">
         <v>119</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>133</v>
       </c>
-      <c r="X11" s="6" t="s">
+      <c r="Y11" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Y11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Z11" s="6" t="s">
+      <c r="AA11" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AA11" s="3" t="s">
+      <c r="AB11" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AB11" s="6" t="s">
+      <c r="AC11" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AC11" s="3" t="s">
+      <c r="AD11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AD11" s="6" t="s">
+      <c r="AE11" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AE11" s="3" t="s">
+      <c r="AF11" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AF11" s="6" t="s">
+      <c r="AG11" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AH11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AH11" s="6" t="s">
+      <c r="AI11" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="AI11" s="3" t="s">
+      <c r="AJ11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AJ11" s="6" t="s">
+      <c r="AK11" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AK11" s="3" t="s">
+      <c r="AL11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AL11" s="6" t="s">
+      <c r="AM11" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="AM11" s="3" t="s">
+      <c r="AN11" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AN11" s="6" t="s">
+      <c r="AO11" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="AO11" s="3" t="s">
+      <c r="AP11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AP11" s="6" t="s">
+      <c r="AQ11" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="AQ11" s="3" t="s">
+      <c r="AR11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AR11" s="7" t="s">
+      <c r="AS11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AS11" s="3" t="s">
+      <c r="AT11" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="AT11" s="7" t="s">
+      <c r="AU11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AU11" s="3" t="s">
+      <c r="AV11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AV11" s="7" t="s">
+      <c r="AW11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AW11" s="3" t="s">
+      <c r="AX11" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="AX11" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657FAD92-A31E-B242-80BA-69766F54DE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FF072D-994D-A24B-BA2D-0F4C606AEF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -920,7 +920,7 @@
   <dimension ref="A1:AX18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1900,7 +1900,7 @@
   <dimension ref="A1:AX11"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FF072D-994D-A24B-BA2D-0F4C606AEF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372E3A5B-FF3D-E147-8FC3-66580D22420B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="peds" sheetId="1" r:id="rId1"/>
@@ -919,7 +919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1899,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AX11"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2188,16 +2188,16 @@
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>152</v>
+      <c r="C3" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -2215,29 +2215,40 @@
         <v>6935</v>
       </c>
       <c r="J3">
-        <v>364635</v>
+        <v>24090</v>
       </c>
       <c r="K3">
         <v>6935</v>
       </c>
+      <c r="L3">
+        <v>364635</v>
+      </c>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="V3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>153</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -2249,133 +2260,178 @@
         <v>23</v>
       </c>
       <c r="I4">
-        <v>4015</v>
+        <v>18250</v>
       </c>
       <c r="J4">
         <v>364635</v>
       </c>
       <c r="K4">
-        <v>4015</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>18250</v>
+      </c>
+      <c r="L4">
+        <v>364635</v>
+      </c>
+      <c r="M4">
+        <v>18250</v>
+      </c>
+      <c r="N4">
+        <v>364635</v>
+      </c>
+      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5">
+        <v>3285</v>
+      </c>
+      <c r="J5">
+        <v>364635</v>
+      </c>
+      <c r="K5">
+        <v>3285</v>
+      </c>
+      <c r="L5">
+        <v>16425</v>
+      </c>
+      <c r="M5">
+        <v>3285</v>
+      </c>
+      <c r="N5">
+        <v>16425</v>
+      </c>
+      <c r="O5">
+        <v>3285</v>
+      </c>
+      <c r="P5">
+        <v>16425</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5">
-        <v>6935</v>
-      </c>
-      <c r="J5">
-        <v>24090</v>
-      </c>
-      <c r="K5">
-        <v>6935</v>
-      </c>
-      <c r="L5">
+      <c r="C6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>23725</v>
+      </c>
+      <c r="J6">
         <v>364635</v>
       </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" ht="80" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6">
-        <v>6935</v>
-      </c>
-      <c r="J6">
-        <v>15695</v>
-      </c>
       <c r="K6">
-        <v>6935</v>
+        <v>23725</v>
       </c>
       <c r="L6">
         <v>364635</v>
       </c>
       <c r="M6">
-        <v>6935</v>
+        <v>24090</v>
       </c>
       <c r="N6">
-        <v>15695</v>
+        <v>364635</v>
       </c>
       <c r="U6" s="1"/>
-      <c r="V6" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="V6" s="1"/>
+      <c r="W6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" ht="395" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>151</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -2384,29 +2440,36 @@
         <v>23</v>
       </c>
       <c r="I7">
-        <v>18250</v>
+        <v>6935</v>
       </c>
       <c r="J7">
-        <v>364635</v>
+        <v>21535</v>
       </c>
       <c r="K7">
-        <v>18250</v>
+        <v>6935</v>
       </c>
       <c r="L7">
         <v>364635</v>
       </c>
       <c r="M7">
-        <v>18250</v>
+        <v>6935</v>
       </c>
       <c r="N7">
-        <v>364635</v>
-      </c>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+        <v>21535</v>
+      </c>
+      <c r="O7">
+        <v>6935</v>
+      </c>
+      <c r="P7">
+        <v>21535</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2415,13 +2478,13 @@
         <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -2430,59 +2493,125 @@
         <v>23</v>
       </c>
       <c r="I8">
-        <v>3285</v>
+        <v>23361</v>
       </c>
       <c r="J8">
         <v>364635</v>
       </c>
       <c r="K8">
-        <v>3285</v>
+        <v>23361</v>
       </c>
       <c r="L8">
-        <v>16425</v>
+        <v>364635</v>
       </c>
       <c r="M8">
-        <v>3285</v>
+        <v>23361</v>
       </c>
       <c r="N8">
-        <v>16425</v>
-      </c>
-      <c r="O8">
-        <v>3285</v>
-      </c>
-      <c r="P8">
-        <v>16425</v>
+        <v>364635</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>86</v>
+      <c r="W8" t="s">
+        <v>119</v>
+      </c>
+      <c r="X8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="AP8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AX8" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>151</v>
+      <c r="C9" t="s">
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>23</v>
@@ -2494,68 +2623,35 @@
         <v>23</v>
       </c>
       <c r="I9">
-        <v>23725</v>
+        <v>6935</v>
       </c>
       <c r="J9">
         <v>364635</v>
       </c>
       <c r="K9">
-        <v>23725</v>
-      </c>
-      <c r="L9">
-        <v>364635</v>
-      </c>
-      <c r="M9">
-        <v>24090</v>
-      </c>
-      <c r="N9">
-        <v>364635</v>
+        <v>6935</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" ht="395" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>151</v>
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -2564,48 +2660,34 @@
         <v>23</v>
       </c>
       <c r="I10">
-        <v>6935</v>
+        <v>4015</v>
       </c>
       <c r="J10">
-        <v>21535</v>
+        <v>364635</v>
       </c>
       <c r="K10">
-        <v>6935</v>
-      </c>
-      <c r="L10">
-        <v>364635</v>
-      </c>
-      <c r="M10">
-        <v>6935</v>
-      </c>
-      <c r="N10">
-        <v>21535</v>
-      </c>
-      <c r="O10">
-        <v>6935</v>
-      </c>
-      <c r="P10">
-        <v>21535</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+        <v>4015</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:50" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>151</v>
+      <c r="C11" t="s">
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -2617,108 +2699,26 @@
         <v>23</v>
       </c>
       <c r="I11">
-        <v>23361</v>
+        <v>6935</v>
       </c>
       <c r="J11">
-        <v>364635</v>
+        <v>15695</v>
       </c>
       <c r="K11">
-        <v>23361</v>
+        <v>6935</v>
       </c>
       <c r="L11">
         <v>364635</v>
       </c>
       <c r="M11">
-        <v>23361</v>
+        <v>6935</v>
       </c>
       <c r="N11">
-        <v>364635</v>
+        <v>15695</v>
       </c>
       <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" t="s">
-        <v>119</v>
-      </c>
-      <c r="X11" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA11" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE11" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG11" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI11" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM11" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN11" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO11" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ11" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AV11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AX11" s="3" t="s">
-        <v>118</v>
+      <c r="V11" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372E3A5B-FF3D-E147-8FC3-66580D22420B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C99513-42F6-DD46-AAAE-457FCD6F6639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="155">
   <si>
     <t>Vaccine</t>
   </si>
@@ -460,9 +460,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>4 months spacing</t>
-  </si>
-  <si>
     <t>1 month spacing</t>
   </si>
   <si>
@@ -487,9 +484,6 @@
     <t xml:space="preserve">Atleast 19 years old - Annually </t>
   </si>
   <si>
-    <t>Atleast 19 years old -&gt; 1 dose bivalent</t>
-  </si>
-  <si>
     <t>Atleast 11 years old</t>
   </si>
   <si>
@@ -505,9 +499,6 @@
     <t>Atleast 65 years old</t>
   </si>
   <si>
-    <t>Atleast 65 years old -&gt; 2 doses bivalent</t>
-  </si>
-  <si>
     <t>COVID-19.</t>
   </si>
   <si>
@@ -524,6 +515,12 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bivalent - Atleast 19 years old </t>
+  </si>
+  <si>
+    <t>Bivalent -  4 months spacing</t>
   </si>
 </sst>
 </file>
@@ -937,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1089,7 +1086,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -1139,7 +1136,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -1183,7 +1180,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -1245,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -1301,7 +1298,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -1357,7 +1354,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -1413,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1469,7 +1466,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -1513,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1557,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1601,7 +1598,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1645,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
@@ -1689,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -1727,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D15" t="s">
         <v>48</v>
@@ -1771,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
@@ -1815,7 +1812,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
         <v>48</v>
@@ -1859,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D18" t="s">
         <v>56</v>
@@ -1900,7 +1897,7 @@
   <dimension ref="A1:AX11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1918,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2070,10 +2067,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -2194,10 +2191,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -2242,13 +2239,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -2288,16 +2285,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -2352,13 +2349,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -2422,16 +2419,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -2469,19 +2466,19 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2605,10 +2602,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -2642,10 +2639,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -2681,13 +2678,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C99513-42F6-DD46-AAAE-457FCD6F6639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAF6145-6BAB-144A-A494-CD07C45345CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="peds" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="154">
   <si>
     <t>Vaccine</t>
   </si>
@@ -173,28 +173,10 @@
     <t>Meningococcal ACWY-D</t>
   </si>
   <si>
-    <t>16 years</t>
-  </si>
-  <si>
     <t>Meningococcal ACWY-CRM</t>
   </si>
   <si>
-    <t>17 years</t>
-  </si>
-  <si>
-    <t>Meningococcal ACWY-TT</t>
-  </si>
-  <si>
-    <t>18 years</t>
-  </si>
-  <si>
     <t>Meningococcal B</t>
-  </si>
-  <si>
-    <t>16 years </t>
-  </si>
-  <si>
-    <t>1 month (Bexsero), 6 months (Trumenba)</t>
   </si>
   <si>
     <t>Zoster (Shingles)</t>
@@ -514,13 +496,28 @@
     <t>Schedule</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bivalent - Atleast 19 years old </t>
   </si>
   <si>
     <t>Bivalent -  4 months spacing</t>
+  </si>
+  <si>
+    <t>Meningococcal</t>
+  </si>
+  <si>
+    <t>See Conditions and Alternate Dosing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Either 11-12 years or 16 years </t>
+  </si>
+  <si>
+    <t>Dose 1 -&gt;  11-12 years | Dose 2 -&gt; 16 years</t>
+  </si>
+  <si>
+    <t>Dose 1 -&gt;  11-12 years | Dose 2 -&gt; 18 years</t>
+  </si>
+  <si>
+    <t>Dose 1 -&gt;  16 years | Dose 2 -&gt; 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
   </si>
 </sst>
 </file>
@@ -914,15 +911,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX18"/>
+  <dimension ref="A1:AX15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E19" sqref="A19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -934,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -988,94 +986,94 @@
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="AK1" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AU1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AX1" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
@@ -1085,8 +1083,8 @@
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>152</v>
+      <c r="C2" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -1135,8 +1133,8 @@
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>152</v>
+      <c r="C3" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -1179,8 +1177,8 @@
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
-        <v>152</v>
+      <c r="C4" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -1241,8 +1239,8 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>152</v>
+      <c r="C5" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -1297,8 +1295,8 @@
       <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>152</v>
+      <c r="C6" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -1353,8 +1351,8 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>152</v>
+      <c r="C7" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -1409,8 +1407,8 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
-        <v>152</v>
+      <c r="C8" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1465,8 +1463,8 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>152</v>
+      <c r="C9" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -1509,8 +1507,8 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>152</v>
+      <c r="C10" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1553,8 +1551,8 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>152</v>
+      <c r="C11" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
@@ -1597,8 +1595,8 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
-        <v>152</v>
+      <c r="C12" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1641,8 +1639,8 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>152</v>
+      <c r="C13" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
@@ -1685,8 +1683,8 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>152</v>
+      <c r="C14" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D14" t="s">
         <v>48</v>
@@ -1718,19 +1716,19 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>152</v>
+      <c r="C15" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -1759,131 +1757,23 @@
       <c r="N15">
         <v>5840</v>
       </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="W15" t="s">
+        <v>49</v>
+      </c>
+      <c r="X15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA15" t="s">
         <v>51</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16">
-        <v>4015</v>
-      </c>
-      <c r="J16">
-        <v>6570</v>
-      </c>
-      <c r="K16">
-        <v>4015</v>
-      </c>
-      <c r="L16">
-        <v>4380</v>
-      </c>
-      <c r="M16">
-        <v>6205</v>
-      </c>
-      <c r="N16">
-        <v>6205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17">
-        <v>4015</v>
-      </c>
-      <c r="J17">
-        <v>6570</v>
-      </c>
-      <c r="K17">
-        <v>4015</v>
-      </c>
-      <c r="L17">
-        <v>4380</v>
-      </c>
-      <c r="M17">
-        <v>6570</v>
-      </c>
-      <c r="N17">
-        <v>6570</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18">
-        <v>5840</v>
-      </c>
-      <c r="J18">
-        <v>6570</v>
-      </c>
-      <c r="M18">
-        <v>30</v>
-      </c>
-      <c r="N18">
-        <v>180</v>
+      <c r="AB15" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1896,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1915,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1969,94 +1859,94 @@
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="AK1" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AU1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AW1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AX1" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
@@ -2067,10 +1957,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -2099,88 +1989,88 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" t="s">
+        <v>113</v>
+      </c>
+      <c r="X2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="X2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AJ2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AL2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AB2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AN2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AP2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AR2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS2" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AH2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AT2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU2" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="AJ2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AV2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="AX2" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
@@ -2191,10 +2081,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -2222,30 +2112,30 @@
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -2279,22 +2169,22 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -2329,33 +2219,33 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -2387,28 +2277,28 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="395" x14ac:dyDescent="0.2">
@@ -2419,16 +2309,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" t="s">
         <v>134</v>
-      </c>
-      <c r="F7" t="s">
-        <v>140</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -2461,24 +2351,24 @@
         <v>21535</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2510,88 +2400,88 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" t="s">
+        <v>113</v>
+      </c>
+      <c r="X8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI8" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="X8" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y8" s="6" t="s">
+      <c r="AJ8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK8" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA8" s="6" t="s">
+      <c r="AL8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM8" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AN8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO8" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE8" s="6" t="s">
+      <c r="AP8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AF8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG8" s="6" t="s">
+      <c r="AR8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS8" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AH8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AI8" s="6" t="s">
+      <c r="AT8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU8" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="AJ8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK8" s="6" t="s">
+      <c r="AV8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW8" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AL8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM8" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO8" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AQ8" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AS8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT8" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="AV8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AW8" s="7" t="s">
-        <v>132</v>
-      </c>
       <c r="AX8" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
@@ -2602,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -2639,10 +2529,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -2666,7 +2556,7 @@
         <v>4015</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="V10" s="1"/>
     </row>
@@ -2678,13 +2568,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -2715,7 +2605,7 @@
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAF6145-6BAB-144A-A494-CD07C45345CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18207F5-04F0-D046-B160-D6D7DAE81834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -508,9 +508,6 @@
     <t>See Conditions and Alternate Dosing</t>
   </si>
   <si>
-    <t xml:space="preserve">Either 11-12 years or 16 years </t>
-  </si>
-  <si>
     <t>Dose 1 -&gt;  11-12 years | Dose 2 -&gt; 16 years</t>
   </si>
   <si>
@@ -518,6 +515,9 @@
   </si>
   <si>
     <t>Dose 1 -&gt;  16 years | Dose 2 -&gt; 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
+  </si>
+  <si>
+    <t>11 years or 16 years depending on the type of vaccine</t>
   </si>
 </sst>
 </file>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E19" sqref="A19:E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1725,7 +1725,7 @@
         <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
         <v>149</v>
@@ -1761,19 +1761,19 @@
         <v>49</v>
       </c>
       <c r="X15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y15" t="s">
         <v>50</v>
       </c>
       <c r="Z15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AA15" t="s">
         <v>51</v>
       </c>
       <c r="AB15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18207F5-04F0-D046-B160-D6D7DAE81834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169FF0B5-4962-0C48-BE14-F167B46C226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="155">
   <si>
     <t>Vaccine</t>
   </si>
@@ -505,9 +505,6 @@
     <t>Meningococcal</t>
   </si>
   <si>
-    <t>See Conditions and Alternate Dosing</t>
-  </si>
-  <si>
     <t>Dose 1 -&gt;  11-12 years | Dose 2 -&gt; 16 years</t>
   </si>
   <si>
@@ -517,7 +514,19 @@
     <t>Dose 1 -&gt;  16 years | Dose 2 -&gt; 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
   </si>
   <si>
-    <t>11 years or 16 years depending on the type of vaccine</t>
+    <t>- Meningococcal ACWY-D: Dose 1 -&gt;  11-12 years | Dose 2 -&gt; 16 years 
+- Meningococcal ACWY-CRM:  Dose 1 -&gt;  11-12 years | Dose 2 -&gt; 18 years
+- Meningococcal B: Dose 1 -&gt;  16 years | Dose 2 -&gt; 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
+  </si>
+  <si>
+    <t>- Meningococcal ACWY-D: 16 years 
+- Meningococcal ACWY-CRM:  18 years
+- Meningococcal B: 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Meningococcal ACWY-D:   11 years 
+- Meningococcal ACWY-CRM:  11 years 
+- Meningococcal B:  16 years </t>
   </si>
 </sst>
 </file>
@@ -586,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -597,6 +606,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,15 +926,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX15"/>
+  <dimension ref="A1:AX17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="33.33203125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
@@ -1714,7 +1730,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -1724,11 +1740,11 @@
       <c r="C15" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="E15" t="s">
-        <v>149</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -1761,18 +1777,23 @@
         <v>49</v>
       </c>
       <c r="X15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Y15" t="s">
         <v>50</v>
       </c>
       <c r="Z15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AA15" t="s">
         <v>51</v>
       </c>
       <c r="AB15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="23:23" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="W17" s="8" t="s">
         <v>152</v>
       </c>
     </row>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169FF0B5-4962-0C48-BE14-F167B46C226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95697BFA-1212-4141-B464-693EEAB2B91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="154">
   <si>
     <t>Vaccine</t>
   </si>
@@ -512,11 +512,6 @@
   </si>
   <si>
     <t>Dose 1 -&gt;  16 years | Dose 2 -&gt; 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
-  </si>
-  <si>
-    <t>- Meningococcal ACWY-D: Dose 1 -&gt;  11-12 years | Dose 2 -&gt; 16 years 
-- Meningococcal ACWY-CRM:  Dose 1 -&gt;  11-12 years | Dose 2 -&gt; 18 years
-- Meningococcal B: Dose 1 -&gt;  16 years | Dose 2 -&gt; 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
   </si>
   <si>
     <t>- Meningococcal ACWY-D: 16 years 
@@ -926,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX17"/>
+  <dimension ref="A1:AX15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1741,10 +1736,10 @@
         <v>142</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -1790,11 +1785,6 @@
       </c>
       <c r="AB15" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="23:23" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="W17" s="8" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95697BFA-1212-4141-B464-693EEAB2B91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158CFF04-920B-F74F-A050-3D2D1384EC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,14 +514,14 @@
     <t>Dose 1 -&gt;  16 years | Dose 2 -&gt; 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
   </si>
   <si>
-    <t>- Meningococcal ACWY-D: 16 years 
-- Meningococcal ACWY-CRM:  18 years
-- Meningococcal B: 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Meningococcal ACWY-D:   11 years 
-- Meningococcal ACWY-CRM:  11 years 
-- Meningococcal B:  16 years </t>
+    <t xml:space="preserve">Meningococcal ACWY-D -&gt;  11 years 
+---------- Meningococcal ACWY-CRM -&gt;  11 years 
+---------- Meningococcal B:  16 years </t>
+  </si>
+  <si>
+    <t>- Meningococcal ACWY-D -&gt; 16 years 
+---------- Meningococcal ACWY-CRM -&gt;  18 years
+---------- Meningococcal B -&gt; 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
   </si>
 </sst>
 </file>
@@ -924,7 +924,7 @@
   <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1725,7 +1725,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="96" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>148</v>
       </c>
@@ -1736,10 +1736,10 @@
         <v>142</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158CFF04-920B-F74F-A050-3D2D1384EC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C416003F-0A78-C745-BF1E-C24FBE071246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,13 +515,13 @@
   </si>
   <si>
     <t xml:space="preserve">Meningococcal ACWY-D -&gt;  11 years 
----------- Meningococcal ACWY-CRM -&gt;  11 years 
----------- Meningococcal B:  16 years </t>
-  </si>
-  <si>
-    <t>- Meningococcal ACWY-D -&gt; 16 years 
----------- Meningococcal ACWY-CRM -&gt;  18 years
----------- Meningococcal B -&gt; 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
+------- Meningococcal ACWY-CRM -&gt;  11 years 
+------- Meningococcal B:  16 years </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meningococcal ACWY-D -&gt; 16 years 
+------- Meningococcal ACWY-CRM -&gt;  18 years
+------- Meningococcal B -&gt; 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
   </si>
 </sst>
 </file>
@@ -924,7 +924,7 @@
   <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1725,7 +1725,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="144" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" ht="112" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>148</v>
       </c>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C416003F-0A78-C745-BF1E-C24FBE071246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35D9F21-E741-D143-AA2F-A27D48FC2C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="peds" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="157">
   <si>
     <t>Vaccine</t>
   </si>
@@ -522,6 +522,16 @@
     <t xml:space="preserve"> Meningococcal ACWY-D -&gt; 16 years 
 ------- Meningococcal ACWY-CRM -&gt;  18 years
 ------- Meningococcal B -&gt; 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
+  </si>
+  <si>
+    <t>Havrix and Vaqta -&gt; 6 months spacing, no more dose needed 
+------- Twinrix -&gt; 1 month spacing, one more dose needed</t>
+  </si>
+  <si>
+    <t>Twinrix only -&gt; 6 months spacing</t>
+  </si>
+  <si>
+    <t>Not at risk but want protection from hepatitis A, Chronic liver disease (Hepatitis B or C, cirrhosis, fatty liver disease, alcoholic liver disease, autoimmune hepatitis, ALT or AST &gt; 2x ULN, HIV infection, Men who have sex with men, Drug use, Homelessness, Work with the Hepatitis A virus through research, Traveling to countries with high rates of Hepatitis A, Close, personal contact with an international adoptee within 60 days of them arriving from a country with high rates of Hepatitis A, Pregnacy if at high risk for infection or severe outcome from infection, Healthcare worker who cares for drug users, group homes, or nonresidential day care facilities for the developmentally disabled</t>
   </si>
 </sst>
 </file>
@@ -590,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -605,6 +615,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -923,7 +936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1795,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
-  <dimension ref="A1:AX11"/>
+  <dimension ref="A1:AX12"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2619,6 +2632,53 @@
         <v>58</v>
       </c>
     </row>
+    <row r="12" spans="1:50" ht="169" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12">
+        <v>6935</v>
+      </c>
+      <c r="J12">
+        <v>364635</v>
+      </c>
+      <c r="K12">
+        <v>6935</v>
+      </c>
+      <c r="L12">
+        <v>364635</v>
+      </c>
+      <c r="M12">
+        <v>6935</v>
+      </c>
+      <c r="N12">
+        <v>364635</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35D9F21-E741-D143-AA2F-A27D48FC2C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2A12DE-0C55-2347-818F-60095AA787AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="172">
   <si>
     <t>Vaccine</t>
   </si>
@@ -505,6 +505,9 @@
     <t>Meningococcal</t>
   </si>
   <si>
+    <t>See Conditions and Alternate Dosing</t>
+  </si>
+  <si>
     <t>Dose 1 -&gt;  11-12 years | Dose 2 -&gt; 16 years</t>
   </si>
   <si>
@@ -532,13 +535,82 @@
   </si>
   <si>
     <t>Not at risk but want protection from hepatitis A, Chronic liver disease (Hepatitis B or C, cirrhosis, fatty liver disease, alcoholic liver disease, autoimmune hepatitis, ALT or AST &gt; 2x ULN, HIV infection, Men who have sex with men, Drug use, Homelessness, Work with the Hepatitis A virus through research, Traveling to countries with high rates of Hepatitis A, Close, personal contact with an international adoptee within 60 days of them arriving from a country with high rates of Hepatitis A, Pregnacy if at high risk for infection or severe outcome from infection, Healthcare worker who cares for drug users, group homes, or nonresidential day care facilities for the developmentally disabled</t>
+  </si>
+  <si>
+    <t>Disease states, Anatomical or functional asplenia, HIV infection, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis</t>
+  </si>
+  <si>
+    <t>2 doses at least 8 weeks apart, every 5 years</t>
+  </si>
+  <si>
+    <t>Travel to countries with high rates of meningococcal disease</t>
+  </si>
+  <si>
+    <t>1 dose every 5 years</t>
+  </si>
+  <si>
+    <t>First-year college students living in residential housing, Military</t>
+  </si>
+  <si>
+    <t>Special situations for MenACWY:</t>
+  </si>
+  <si>
+    <t>1 dose</t>
+  </si>
+  <si>
+    <t>Special situations for MenB:</t>
+  </si>
+  <si>
+    <t>Anatomical or functional asplenia, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis</t>
+  </si>
+  <si>
+    <t>Option 1: Bexsero (MenB-4C) -&gt; 2 doses with 1 month spacing, Booster: 1 year after primary series, repeated every 2-3 years if risk remains </t>
+  </si>
+  <si>
+    <t>------- Option 2: Trumenba (MenB-FHbp) -&gt; 2-4 doses -&gt; Dose 2 with 1-2 months spacing, Dose 3 is not needed if dose 2 was &gt; 6 months after dose 1; if needed it should be 4 months after dose 2. Dose 4: Only needed if dose 3 was &lt; 4 months after dose 2; should be &gt; 4 months after dose 3, Booster: 1 year after primary series, repeated every 2-3 years if risk remains</t>
+  </si>
+  <si>
+    <t>Meningococcal </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF211D1E"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pregnancy</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF211D1E"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF211D1E"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Delay MenB until after pregnancy unless at increased risk and vaccination benefits outweigh potential risks </t>
+    </r>
+  </si>
+  <si>
+    <t>for MenB -&gt; Anatomical or functional asplenia, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis. For MenACWY -&gt; Anatomical or functional asplenia, HIV infection, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis, Travel to countries with high rates of meningococcal disease, First-year college students living in residential housing, Military</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -579,6 +651,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF211D1E"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF211D1E"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -600,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -620,6 +705,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1749,10 +1835,10 @@
         <v>142</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -1785,19 +1871,19 @@
         <v>49</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y15" t="s">
         <v>50</v>
       </c>
       <c r="Z15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA15" t="s">
         <v>51</v>
       </c>
       <c r="AB15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1808,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
-  <dimension ref="A1:AX12"/>
+  <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2646,10 +2732,10 @@
         <v>137</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -2676,8 +2762,137 @@
         <v>364635</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13">
+        <v>6935</v>
+      </c>
+      <c r="J13">
+        <v>364635</v>
+      </c>
+      <c r="K13">
+        <v>6935</v>
+      </c>
+      <c r="L13">
+        <v>364635</v>
+      </c>
+      <c r="M13">
+        <v>6935</v>
+      </c>
+      <c r="N13">
+        <v>364635</v>
+      </c>
+      <c r="U13" t="s">
+        <v>171</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="W13" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE13" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AH13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2A12DE-0C55-2347-818F-60095AA787AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7E038C-955C-1C40-A714-72BB0EE2E523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="171">
   <si>
     <t>Vaccine</t>
   </si>
@@ -564,12 +564,6 @@
     <t>Anatomical or functional asplenia, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis</t>
   </si>
   <si>
-    <t>Option 1: Bexsero (MenB-4C) -&gt; 2 doses with 1 month spacing, Booster: 1 year after primary series, repeated every 2-3 years if risk remains </t>
-  </si>
-  <si>
-    <t>------- Option 2: Trumenba (MenB-FHbp) -&gt; 2-4 doses -&gt; Dose 2 with 1-2 months spacing, Dose 3 is not needed if dose 2 was &gt; 6 months after dose 1; if needed it should be 4 months after dose 2. Dose 4: Only needed if dose 3 was &lt; 4 months after dose 2; should be &gt; 4 months after dose 3, Booster: 1 year after primary series, repeated every 2-3 years if risk remains</t>
-  </si>
-  <si>
     <t>Meningococcal </t>
   </si>
   <si>
@@ -604,6 +598,10 @@
   </si>
   <si>
     <t>for MenB -&gt; Anatomical or functional asplenia, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis. For MenACWY -&gt; Anatomical or functional asplenia, HIV infection, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis, Travel to countries with high rates of meningococcal disease, First-year college students living in residential housing, Military</t>
+  </si>
+  <si>
+    <t>Option 1: Bexsero (MenB-4C) -&gt; 2 doses with 1 month spacing, Booster: 1 year after primary series, repeated every 2-3 years if risk remains 
+------- Option 2: Trumenba (MenB-FHbp) -&gt; 2-4 doses -&gt; Dose 2 with 1-2 months spacing, Dose 3 is not needed if dose 2 was &gt; 6 months after dose 1; if needed it should be 4 months after dose 2. Dose 4: Only needed if dose 3 was &lt; 4 months after dose 2; should be &gt; 4 months after dose 3, Booster: 1 year after primary series, repeated every 2-3 years if risk remains</t>
   </si>
 </sst>
 </file>
@@ -685,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -697,6 +695,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -1837,7 +1838,7 @@
       <c r="D15" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="10" t="s">
         <v>154</v>
       </c>
       <c r="F15" t="s">
@@ -1896,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AX15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2731,7 +2732,7 @@
       <c r="D12" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -2765,9 +2766,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -2809,10 +2810,10 @@
         <v>364635</v>
       </c>
       <c r="U13" t="s">
-        <v>171</v>
-      </c>
-      <c r="V13" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="W13" t="s">
         <v>163</v>
@@ -2842,8 +2843,8 @@
       <c r="AG13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AH13" s="4" t="s">
-        <v>167</v>
+      <c r="AH13" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
@@ -2861,9 +2862,7 @@
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
-      <c r="AH14" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7E038C-955C-1C40-A714-72BB0EE2E523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC777C8C-ACDB-9C44-9710-2CED8DABF9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -597,11 +597,11 @@
     </r>
   </si>
   <si>
-    <t>for MenB -&gt; Anatomical or functional asplenia, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis. For MenACWY -&gt; Anatomical or functional asplenia, HIV infection, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis, Travel to countries with high rates of meningococcal disease, First-year college students living in residential housing, Military</t>
-  </si>
-  <si>
     <t>Option 1: Bexsero (MenB-4C) -&gt; 2 doses with 1 month spacing, Booster: 1 year after primary series, repeated every 2-3 years if risk remains 
 ------- Option 2: Trumenba (MenB-FHbp) -&gt; 2-4 doses -&gt; Dose 2 with 1-2 months spacing, Dose 3 is not needed if dose 2 was &gt; 6 months after dose 1; if needed it should be 4 months after dose 2. Dose 4: Only needed if dose 3 was &lt; 4 months after dose 2; should be &gt; 4 months after dose 3, Booster: 1 year after primary series, repeated every 2-3 years if risk remains</t>
+  </si>
+  <si>
+    <t>for MenB -&gt; Anatomical or functional asplenia, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis. ------- For MenACWY -&gt; Anatomical or functional asplenia, HIV infection, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis, Travel to countries with high rates of meningococcal disease, First-year college students living in residential housing, Military</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1898,7 @@
   <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2810,7 +2810,7 @@
         <v>364635</v>
       </c>
       <c r="U13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="V13" s="12" t="s">
         <v>168</v>
@@ -2844,7 +2844,7 @@
         <v>166</v>
       </c>
       <c r="AH13" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC777C8C-ACDB-9C44-9710-2CED8DABF9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00263BD5-7128-994B-86CB-5F8A8410BD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="172">
   <si>
     <t>Vaccine</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>for MenB -&gt; Anatomical or functional asplenia, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis. ------- For MenACWY -&gt; Anatomical or functional asplenia, HIV infection, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis, Travel to countries with high rates of meningococcal disease, First-year college students living in residential housing, Military</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1901,7 @@
   <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="AF13" sqref="AF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2818,6 +2821,9 @@
       <c r="W13" t="s">
         <v>163</v>
       </c>
+      <c r="X13" t="s">
+        <v>171</v>
+      </c>
       <c r="Y13" t="s">
         <v>158</v>
       </c>
@@ -2839,7 +2845,9 @@
       <c r="AE13" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AF13" s="4"/>
+      <c r="AF13" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="AG13" s="4" t="s">
         <v>166</v>
       </c>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00263BD5-7128-994B-86CB-5F8A8410BD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC1F336-B133-4643-B683-78A94C78E136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="171">
   <si>
     <t>Vaccine</t>
   </si>
@@ -602,9 +602,6 @@
   </si>
   <si>
     <t>for MenB -&gt; Anatomical or functional asplenia, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis. ------- For MenACWY -&gt; Anatomical or functional asplenia, HIV infection, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis, Travel to countries with high rates of meningococcal disease, First-year college students living in residential housing, Military</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -2822,7 +2819,7 @@
         <v>163</v>
       </c>
       <c r="X13" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s">
         <v>158</v>
@@ -2846,7 +2843,7 @@
         <v>165</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AG13" s="4" t="s">
         <v>166</v>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC1F336-B133-4643-B683-78A94C78E136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AABF5B-319E-F84C-B5FB-7476C673AE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="161">
   <si>
     <t>Vaccine</t>
   </si>
@@ -537,33 +537,6 @@
     <t>Not at risk but want protection from hepatitis A, Chronic liver disease (Hepatitis B or C, cirrhosis, fatty liver disease, alcoholic liver disease, autoimmune hepatitis, ALT or AST &gt; 2x ULN, HIV infection, Men who have sex with men, Drug use, Homelessness, Work with the Hepatitis A virus through research, Traveling to countries with high rates of Hepatitis A, Close, personal contact with an international adoptee within 60 days of them arriving from a country with high rates of Hepatitis A, Pregnacy if at high risk for infection or severe outcome from infection, Healthcare worker who cares for drug users, group homes, or nonresidential day care facilities for the developmentally disabled</t>
   </si>
   <si>
-    <t>Disease states, Anatomical or functional asplenia, HIV infection, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis</t>
-  </si>
-  <si>
-    <t>2 doses at least 8 weeks apart, every 5 years</t>
-  </si>
-  <si>
-    <t>Travel to countries with high rates of meningococcal disease</t>
-  </si>
-  <si>
-    <t>1 dose every 5 years</t>
-  </si>
-  <si>
-    <t>First-year college students living in residential housing, Military</t>
-  </si>
-  <si>
-    <t>Special situations for MenACWY:</t>
-  </si>
-  <si>
-    <t>1 dose</t>
-  </si>
-  <si>
-    <t>Special situations for MenB:</t>
-  </si>
-  <si>
-    <t>Anatomical or functional asplenia, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis</t>
-  </si>
-  <si>
     <t>Meningococcal </t>
   </si>
   <si>
@@ -595,10 +568,6 @@
       </rPr>
       <t>Delay MenB until after pregnancy unless at increased risk and vaccination benefits outweigh potential risks </t>
     </r>
-  </si>
-  <si>
-    <t>Option 1: Bexsero (MenB-4C) -&gt; 2 doses with 1 month spacing, Booster: 1 year after primary series, repeated every 2-3 years if risk remains 
-------- Option 2: Trumenba (MenB-FHbp) -&gt; 2-4 doses -&gt; Dose 2 with 1-2 months spacing, Dose 3 is not needed if dose 2 was &gt; 6 months after dose 1; if needed it should be 4 months after dose 2. Dose 4: Only needed if dose 3 was &lt; 4 months after dose 2; should be &gt; 4 months after dose 3, Booster: 1 year after primary series, repeated every 2-3 years if risk remains</t>
   </si>
   <si>
     <t>for MenB -&gt; Anatomical or functional asplenia, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis. ------- For MenACWY -&gt; Anatomical or functional asplenia, HIV infection, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis, Travel to countries with high rates of meningococcal disease, First-year college students living in residential housing, Military</t>
@@ -1897,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AX15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AF13" sqref="AF13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13:AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2766,9 +2735,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -2810,47 +2779,15 @@
         <v>364635</v>
       </c>
       <c r="U13" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="W13" t="s">
-        <v>163</v>
-      </c>
-      <c r="X13" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z13" t="s">
         <v>159</v>
       </c>
-      <c r="AA13" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>164</v>
-      </c>
-      <c r="AE13" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AF13" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG13" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH13" s="9" t="s">
-        <v>169</v>
-      </c>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="9"/>
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AABF5B-319E-F84C-B5FB-7476C673AE55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0199861A-0BC1-A44E-8EE0-191BF25314CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="170">
   <si>
     <t>Vaccine</t>
   </si>
@@ -571,6 +571,37 @@
   </si>
   <si>
     <t>for MenB -&gt; Anatomical or functional asplenia, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis. ------- For MenACWY -&gt; Anatomical or functional asplenia, HIV infection, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis, Travel to countries with high rates of meningococcal disease, First-year college students living in residential housing, Military</t>
+  </si>
+  <si>
+    <t>Polio </t>
+  </si>
+  <si>
+    <t>The first dose at any time</t>
+  </si>
+  <si>
+    <t>1 or 2 months Spacing</t>
+  </si>
+  <si>
+    <t>6 to 12 months Spacing</t>
+  </si>
+  <si>
+    <t>administer remaining doses</t>
+  </si>
+  <si>
+    <t>No evidence of a complete polio vaccination series (i.e., at least 3 doses)
+(1, 2, or 3 doses) to complete a 3-dose series</t>
+  </si>
+  <si>
+    <t>Routine poliovirus vaccination of adults residing in the United States is not necessary. It is recommended to adults at increased risk of exposure
+to poliovirus.</t>
+  </si>
+  <si>
+    <t>adults at increased risk of exposure
+to poliovirus that have vidence of completed polio vaccination series
+(i.e., at least 3 doses)</t>
+  </si>
+  <si>
+    <t>may administer one lifetime IPV booster</t>
   </si>
 </sst>
 </file>
@@ -1867,11 +1898,12 @@
   <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13:AH13"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="22.1640625" customWidth="1"/>
     <col min="11" max="11" width="11.1640625" customWidth="1"/>
     <col min="22" max="22" width="57.6640625" customWidth="1"/>
@@ -2801,7 +2833,70 @@
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" ht="256" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>6935</v>
+      </c>
+      <c r="J14">
+        <v>364635</v>
+      </c>
+      <c r="K14">
+        <v>6935</v>
+      </c>
+      <c r="L14">
+        <v>364635</v>
+      </c>
+      <c r="M14">
+        <v>6935</v>
+      </c>
+      <c r="N14">
+        <v>364635</v>
+      </c>
+      <c r="O14">
+        <v>6935</v>
+      </c>
+      <c r="P14">
+        <v>364635</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="W14" t="s">
+        <v>169</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>165</v>
+      </c>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
       <c r="AH14" s="4"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0199861A-0BC1-A44E-8EE0-191BF25314CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CFACA0-01F1-B64D-9EA9-F408EDAA6BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2882,19 +2882,19 @@
       <c r="P14">
         <v>364635</v>
       </c>
-      <c r="U14" s="2" t="s">
+      <c r="W14" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="V14" s="8" t="s">
+      <c r="X14" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="W14" t="s">
+      <c r="Y14" t="s">
         <v>169</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="Z14" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AA14" t="s">
         <v>165</v>
       </c>
       <c r="AF14" s="4"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CFACA0-01F1-B64D-9EA9-F408EDAA6BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319B71E5-ACDA-014B-A119-511C9EEE77CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,23 +585,24 @@
     <t>6 to 12 months Spacing</t>
   </si>
   <si>
-    <t>administer remaining doses</t>
-  </si>
-  <si>
-    <t>No evidence of a complete polio vaccination series (i.e., at least 3 doses)
-(1, 2, or 3 doses) to complete a 3-dose series</t>
-  </si>
-  <si>
     <t>Routine poliovirus vaccination of adults residing in the United States is not necessary. It is recommended to adults at increased risk of exposure
 to poliovirus.</t>
   </si>
   <si>
-    <t>adults at increased risk of exposure
-to poliovirus that have vidence of completed polio vaccination series
+    <t>May administer one lifetime IPV booster</t>
+  </si>
+  <si>
+    <t>Administer remaining doses</t>
+  </si>
+  <si>
+    <t>Adults at increased risk of exposure
+to poliovirus that have No evidence of a complete polio vaccination series (i.e., at least 3 doses)
+(1, 2, or 3 doses) to complete a 3-dose series</t>
+  </si>
+  <si>
+    <t>Adults at increased risk of exposure
+to poliovirus that have evidence of completed polio vaccination series
 (i.e., at least 3 doses)</t>
-  </si>
-  <si>
-    <t>may administer one lifetime IPV booster</t>
   </si>
 </sst>
 </file>
@@ -1898,7 +1899,7 @@
   <dimension ref="A1:AX15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2833,7 +2834,7 @@
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
     </row>
-    <row r="14" spans="1:50" ht="256" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" ht="304" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -2882,20 +2883,20 @@
       <c r="P14">
         <v>364635</v>
       </c>
-      <c r="W14" s="2" t="s">
+      <c r="U14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="W14" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="X14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y14" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z14" t="s">
         <v>167</v>
-      </c>
-      <c r="X14" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>165</v>
       </c>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319B71E5-ACDA-014B-A119-511C9EEE77CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EEB48E-2EF1-F543-A1EB-86FAC933CC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="177">
   <si>
     <t>Vaccine</t>
   </si>
@@ -604,12 +604,33 @@
 to poliovirus that have evidence of completed polio vaccination series
 (i.e., at least 3 doses)</t>
   </si>
+  <si>
+    <t>Haemophilus influenzae type b </t>
+  </si>
+  <si>
+    <t>Anatomical or functional asplenia (including sickle cell disease), Hematopoietic stem cell transplant (HSCT)</t>
+  </si>
+  <si>
+    <t>Hematopoietic stem cell transplant (HSCT): </t>
+  </si>
+  <si>
+    <t>3-dose series 4 weeks apart starting 6–12 months after successful transplant, regardless of Hib vaccination history</t>
+  </si>
+  <si>
+    <t>1 dose if previously did not receive Hib; if elective splenectomy, 1 dose preferably at least 14 days before splenectomy </t>
+  </si>
+  <si>
+    <t>Anatomical or functional asplenia (including sickle cell disease)</t>
+  </si>
+  <si>
+    <t>Hematopoietic stem cell transplant (HSCT)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -663,6 +684,12 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -684,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -708,6 +735,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1896,10 +1924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
-  <dimension ref="A1:AX15"/>
+  <dimension ref="A1:AX16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2914,8 +2942,58 @@
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="AF15" s="4"/>
+    <row r="15" spans="1:50" ht="176" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15">
+        <v>6935</v>
+      </c>
+      <c r="J15">
+        <v>364635</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="W15" t="s">
+        <v>175</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>173</v>
+      </c>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
@@ -2931,6 +3009,13 @@
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
     </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EEB48E-2EF1-F543-A1EB-86FAC933CC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4519C532-D10A-3241-B5BE-FEF465960130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="185">
   <si>
     <t>Vaccine</t>
   </si>
@@ -119,9 +119,6 @@
     <t>4-6 years</t>
   </si>
   <si>
-    <t>Hib (ActHIB, Hiberix, Pentatcel, Vaxelis)</t>
-  </si>
-  <si>
     <t>12-15 months</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
   </si>
   <si>
     <t>12 months</t>
-  </si>
-  <si>
-    <t>18 months</t>
   </si>
   <si>
     <t>Tdap</t>
@@ -517,11 +511,6 @@
     <t>Dose 1 -&gt;  16 years | Dose 2 -&gt; 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal ACWY-D -&gt;  11 years 
-------- Meningococcal ACWY-CRM -&gt;  11 years 
-------- Meningococcal B:  16 years </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Meningococcal ACWY-D -&gt; 16 years 
 ------- Meningococcal ACWY-CRM -&gt;  18 years
 ------- Meningococcal B -&gt; 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
@@ -605,9 +594,6 @@
 (i.e., at least 3 doses)</t>
   </si>
   <si>
-    <t>Haemophilus influenzae type b </t>
-  </si>
-  <si>
     <t>Anatomical or functional asplenia (including sickle cell disease), Hematopoietic stem cell transplant (HSCT)</t>
   </si>
   <si>
@@ -624,6 +610,44 @@
   </si>
   <si>
     <t>Hematopoietic stem cell transplant (HSCT)</t>
+  </si>
+  <si>
+    <t>2 months ( Do not start after 15 weeks)</t>
+  </si>
+  <si>
+    <t>12-15 months (Do not use Vaxelis for dose 4)</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae type b (Hib)</t>
+  </si>
+  <si>
+    <t>4-6 years ( at least 6 months after the previous dose)</t>
+  </si>
+  <si>
+    <t>18 months (Minimum interval of 6 months)</t>
+  </si>
+  <si>
+    <t>Meningococcal ACWY-D -&gt;  11 years 
+------- Meningococcal ACWY-CRM -&gt;  11 years 
+------- Meningococcal B:  16 years (Based on shared clinical decision-making)</t>
+  </si>
+  <si>
+    <t>for MenB -&gt; Anatomical or functional asplenia, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis.Based on shared clinical decision-making for those 16-23 years old ------- For MenACWY -&gt; Anatomical or functional asplenia, HIV infection, Persistent complement component deficiency, Complement inhibitor (ex: eculizumab, ravulizumab) use, Microbiologist exposed to Neisseria meningitidis, Travel to countries with high rates of meningococcal disease, First-year college students living in residential housing, Military</t>
+  </si>
+  <si>
+    <t>Bexsero (MenB-4C)</t>
+  </si>
+  <si>
+    <t>Dose 1: 0, Dose 2: 1 month, Boster: 1 year after primary series, repeated every 2-3 years if risk remains</t>
+  </si>
+  <si>
+    <t>Trumenba (MenB-FHbp)</t>
+  </si>
+  <si>
+    <t>Dose 1: 0, Dose 2: 1-2 months, Dose 3: Not needed if dose 2 was &gt; 6 months after dose 1; if needed it should be 4 months after dose 2, Dose 4: Only needed if dose 3 was &lt; 4 months after dose 2; should be &gt; 4 months after dose 3 Boster: 1 year after primary series, repeated every 2-3 years if risk remains</t>
+  </si>
+  <si>
+    <t>Dose 1: 0, Dose 2: 6 months, Dose 3: if dose 2 was &lt; 6 months after dose 1: 4 months after dose 2 Boster: 1 year after primary series, repeated every 2-3 years if risk remains</t>
   </si>
 </sst>
 </file>
@@ -1050,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX15"/>
+  <dimension ref="A1:AX16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1072,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1126,94 +1150,94 @@
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="AK1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="AQ1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
@@ -1224,7 +1248,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -1245,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6570</v>
+        <v>6934</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1274,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -1318,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -1374,13 +1398,13 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -1392,7 +1416,7 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -1430,13 +1454,13 @@
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -1448,7 +1472,7 @@
         <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -1486,13 +1510,13 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -1542,13 +1566,13 @@
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1560,7 +1584,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>176</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
@@ -1569,7 +1593,7 @@
         <v>42</v>
       </c>
       <c r="J8">
-        <v>6570</v>
+        <v>6934</v>
       </c>
       <c r="K8">
         <v>60</v>
@@ -1598,22 +1622,22 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
       </c>
       <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
         <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -1625,7 +1649,7 @@
         <v>180</v>
       </c>
       <c r="J9">
-        <v>6570</v>
+        <v>6934</v>
       </c>
       <c r="K9">
         <v>180</v>
@@ -1642,19 +1666,19 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -1669,7 +1693,7 @@
         <v>180</v>
       </c>
       <c r="J10">
-        <v>6570</v>
+        <v>6934</v>
       </c>
       <c r="K10">
         <v>180</v>
@@ -1686,16 +1710,16 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
         <v>31</v>
@@ -1713,7 +1737,7 @@
         <v>360</v>
       </c>
       <c r="J11">
-        <v>6570</v>
+        <v>6934</v>
       </c>
       <c r="K11">
         <v>360</v>
@@ -1730,16 +1754,16 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
         <v>31</v>
@@ -1757,7 +1781,7 @@
         <v>360</v>
       </c>
       <c r="J12">
-        <v>6570</v>
+        <v>6934</v>
       </c>
       <c r="K12">
         <v>360</v>
@@ -1774,19 +1798,19 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -1801,7 +1825,7 @@
         <v>360</v>
       </c>
       <c r="J13">
-        <v>6570</v>
+        <v>6934</v>
       </c>
       <c r="K13">
         <v>360</v>
@@ -1818,16 +1842,16 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>23</v>
@@ -1845,7 +1869,7 @@
         <v>4015</v>
       </c>
       <c r="J14">
-        <v>6570</v>
+        <v>6934</v>
       </c>
       <c r="K14">
         <v>4015</v>
@@ -1854,21 +1878,21 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="15" spans="1:50" ht="112" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -1883,7 +1907,7 @@
         <v>4015</v>
       </c>
       <c r="J15">
-        <v>6570</v>
+        <v>6934</v>
       </c>
       <c r="K15">
         <v>4015</v>
@@ -1898,22 +1922,66 @@
         <v>5840</v>
       </c>
       <c r="W15" t="s">
+        <v>47</v>
+      </c>
+      <c r="X15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA15" t="s">
         <v>49</v>
       </c>
-      <c r="X15" t="s">
+      <c r="AB15" t="s">
         <v>150</v>
       </c>
-      <c r="Y15" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>152</v>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16">
+        <v>42</v>
+      </c>
+      <c r="J16">
+        <v>240</v>
+      </c>
+      <c r="K16">
+        <v>42</v>
+      </c>
+      <c r="L16">
+        <v>240</v>
+      </c>
+      <c r="M16">
+        <v>42</v>
+      </c>
+      <c r="N16">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1924,10 +1992,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
-  <dimension ref="A1:AX16"/>
+  <dimension ref="A1:AX17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1946,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2000,108 +2068,108 @@
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="AK1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="AQ1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AU1" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -2130,102 +2198,102 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" t="s">
+        <v>111</v>
+      </c>
+      <c r="X2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="X2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AB2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AF2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AJ2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AH2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AL2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AN2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AO2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AP2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AN2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AR2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS2" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="AP2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AT2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU2" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AR2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AV2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW2" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AT2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="AX2" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -2253,30 +2321,30 @@
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -2310,22 +2378,22 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -2360,33 +2428,33 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -2418,28 +2486,28 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AB6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="395" x14ac:dyDescent="0.2">
@@ -2450,16 +2518,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -2492,24 +2560,24 @@
         <v>21535</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2541,102 +2609,102 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" t="s">
+        <v>111</v>
+      </c>
+      <c r="X8" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="X8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y8" s="6" t="s">
+      <c r="AB8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC8" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA8" s="6" t="s">
+      <c r="AD8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE8" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AF8" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AG8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AE8" s="6" t="s">
+      <c r="AI8" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="AF8" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG8" s="6" t="s">
+      <c r="AJ8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK8" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AH8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI8" s="6" t="s">
+      <c r="AL8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM8" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="AN8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AK8" s="6" t="s">
+      <c r="AO8" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AL8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM8" s="6" t="s">
+      <c r="AP8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AN8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO8" s="6" t="s">
+      <c r="AR8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS8" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="AP8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ8" s="6" t="s">
+      <c r="AT8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU8" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="AR8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AS8" s="7" t="s">
+      <c r="AV8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW8" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="AT8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="AV8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AW8" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="AX8" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -2664,16 +2732,16 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -2697,25 +2765,25 @@
         <v>4015</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:50" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -2746,27 +2814,27 @@
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:50" ht="169" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -2793,24 +2861,24 @@
         <v>364635</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -2825,25 +2893,37 @@
         <v>6935</v>
       </c>
       <c r="J13">
-        <v>364635</v>
+        <v>8759</v>
       </c>
       <c r="K13">
         <v>6935</v>
       </c>
       <c r="L13">
-        <v>364635</v>
+        <v>8759</v>
       </c>
       <c r="M13">
         <v>6935</v>
       </c>
       <c r="N13">
-        <v>364635</v>
+        <v>8759</v>
       </c>
       <c r="U13" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="X13" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y13" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>184</v>
       </c>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -2862,24 +2942,24 @@
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
     </row>
-    <row r="14" spans="1:50" ht="304" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
@@ -2888,47 +2968,45 @@
         <v>23</v>
       </c>
       <c r="I14">
-        <v>6935</v>
+        <v>8760</v>
       </c>
       <c r="J14">
         <v>364635</v>
       </c>
       <c r="K14">
-        <v>6935</v>
+        <v>8760</v>
       </c>
       <c r="L14">
         <v>364635</v>
       </c>
       <c r="M14">
-        <v>6935</v>
+        <v>8760</v>
       </c>
       <c r="N14">
         <v>364635</v>
       </c>
-      <c r="O14">
-        <v>6935</v>
-      </c>
-      <c r="P14">
-        <v>364635</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="W14" s="8" t="s">
-        <v>169</v>
+      <c r="U14" t="s">
+        <v>157</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="X14" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y14" s="8" t="s">
-        <v>168</v>
+        <v>181</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="Z14" t="s">
-        <v>167</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
+      <c r="AH14" s="9"/>
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
@@ -2942,24 +3020,24 @@
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
     </row>
-    <row r="15" spans="1:50" ht="176" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>170</v>
+    <row r="15" spans="1:50" ht="304" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>158</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
@@ -2973,27 +3051,40 @@
       <c r="J15">
         <v>364635</v>
       </c>
-      <c r="U15" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="W15" t="s">
-        <v>175</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y15" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z15" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA15" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB15" s="12" t="s">
-        <v>173</v>
-      </c>
+      <c r="K15">
+        <v>6935</v>
+      </c>
+      <c r="L15">
+        <v>364635</v>
+      </c>
+      <c r="M15">
+        <v>6935</v>
+      </c>
+      <c r="N15">
+        <v>364635</v>
+      </c>
+      <c r="O15">
+        <v>6935</v>
+      </c>
+      <c r="P15">
+        <v>364635</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
@@ -3009,12 +3100,79 @@
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
+    <row r="16" spans="1:50" ht="176" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16">
+        <v>6935</v>
+      </c>
+      <c r="J16">
+        <v>364635</v>
+      </c>
+      <c r="U16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB16" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+    </row>
+    <row r="17" spans="21:25" x14ac:dyDescent="0.2">
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4519C532-D10A-3241-B5BE-FEF465960130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E60B775-3804-4D45-8374-40E8636262EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E60B775-3804-4D45-8374-40E8636262EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238AD726-BBA1-BF46-8BAD-50A341EBB3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1994,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AX17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B13">
         <v>2</v>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238AD726-BBA1-BF46-8BAD-50A341EBB3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A438A5-A3C1-A747-BCA2-7FF29420EB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="peds" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="181">
   <si>
     <t>Vaccine</t>
   </si>
@@ -162,15 +162,6 @@
   </si>
   <si>
     <t>11-12 years</t>
-  </si>
-  <si>
-    <t>Meningococcal ACWY-D</t>
-  </si>
-  <si>
-    <t>Meningococcal ACWY-CRM</t>
-  </si>
-  <si>
-    <t>Meningococcal B</t>
   </si>
   <si>
     <t>Zoster (Shingles)</t>
@@ -502,15 +493,6 @@
     <t>See Conditions and Alternate Dosing</t>
   </si>
   <si>
-    <t>Dose 1 -&gt;  11-12 years | Dose 2 -&gt; 16 years</t>
-  </si>
-  <si>
-    <t>Dose 1 -&gt;  11-12 years | Dose 2 -&gt; 18 years</t>
-  </si>
-  <si>
-    <t>Dose 1 -&gt;  16 years | Dose 2 -&gt; 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Meningococcal ACWY-D -&gt; 16 years 
 ------- Meningococcal ACWY-CRM -&gt;  18 years
 ------- Meningococcal B -&gt; 1 month spacing (Bexsero), 6 months spacing (Trumenba)</t>
@@ -648,6 +630,12 @@
   </si>
   <si>
     <t>Dose 1: 0, Dose 2: 6 months, Dose 3: if dose 2 was &lt; 6 months after dose 1: 4 months after dose 2 Boster: 1 year after primary series, repeated every 2-3 years if risk remains</t>
+  </si>
+  <si>
+    <t>Catch Up Age 4 months to 18 years</t>
+  </si>
+  <si>
+    <t>Dose 1 to Dose 2: 4 weeks</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11:X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1096,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1150,94 +1138,94 @@
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="AK1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
@@ -1248,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -1298,7 +1286,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -1342,7 +1330,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -1398,13 +1386,13 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -1416,7 +1404,7 @@
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -1460,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -1516,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -1572,7 +1560,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -1584,7 +1572,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H8" t="s">
         <v>23</v>
@@ -1628,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
@@ -1672,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
         <v>29</v>
@@ -1716,7 +1704,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
         <v>32</v>
@@ -1750,6 +1738,12 @@
       </c>
       <c r="N11">
         <v>2190</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
@@ -1760,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -1804,13 +1798,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -1848,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
         <v>46</v>
@@ -1880,19 +1874,19 @@
     </row>
     <row r="15" spans="1:50" ht="144" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
@@ -1920,24 +1914,6 @@
       </c>
       <c r="N15">
         <v>5840</v>
-      </c>
-      <c r="W15" t="s">
-        <v>47</v>
-      </c>
-      <c r="X15" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
@@ -1948,10 +1924,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>26</v>
@@ -1994,7 +1970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA09C3F-3C13-3348-B48A-C385BA0E1723}">
   <dimension ref="A1:AX17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -2014,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2068,94 +2044,94 @@
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="AK1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT1" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AV1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AT1" s="5" t="s">
+      <c r="AW1" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AX1" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
@@ -2166,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -2198,88 +2174,88 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="X2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AD2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AF2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="AB2" s="3" t="s">
+      <c r="AH2" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AI2" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="AD2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AJ2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="AF2" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AL2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AH2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AN2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="AJ2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AP2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AL2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AR2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS2" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="AN2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AT2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AV2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW2" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AR2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="AX2" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
@@ -2290,10 +2266,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -2321,30 +2297,30 @@
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F4" t="s">
         <v>23</v>
@@ -2378,22 +2354,22 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" t="s">
         <v>128</v>
-      </c>
-      <c r="F5" t="s">
-        <v>131</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -2428,33 +2404,33 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z5" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F6" t="s">
         <v>23</v>
@@ -2486,28 +2462,28 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Y6" s="3" t="s">
+      <c r="AB6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AC6" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AA6" s="3" t="s">
+      <c r="AD6" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:50" ht="395" x14ac:dyDescent="0.2">
@@ -2518,16 +2494,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -2560,24 +2536,24 @@
         <v>21535</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
         <v>23</v>
@@ -2609,88 +2585,88 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC8" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="X8" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y8" s="6" t="s">
+      <c r="AD8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA8" s="6" t="s">
+      <c r="AF8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AH8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AI8" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="AD8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE8" s="6" t="s">
+      <c r="AJ8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK8" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="AF8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG8" s="6" t="s">
+      <c r="AL8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AH8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI8" s="6" t="s">
+      <c r="AN8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO8" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="AJ8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK8" s="6" t="s">
+      <c r="AP8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AL8" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM8" s="6" t="s">
+      <c r="AR8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="AN8" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AO8" s="6" t="s">
+      <c r="AT8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AP8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ8" s="6" t="s">
+      <c r="AV8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="AR8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AW8" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="AX8" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
@@ -2701,10 +2677,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E9" t="s">
         <v>23</v>
@@ -2738,10 +2714,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -2765,7 +2741,7 @@
         <v>4015</v>
       </c>
       <c r="U10" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="V10" s="1"/>
     </row>
@@ -2777,13 +2753,13 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F11" t="s">
         <v>23</v>
@@ -2814,7 +2790,7 @@
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:50" ht="169" x14ac:dyDescent="0.2">
@@ -2825,16 +2801,16 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -2861,24 +2837,24 @@
         <v>364635</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F13" t="s">
         <v>23</v>
@@ -2908,22 +2884,22 @@
         <v>8759</v>
       </c>
       <c r="U13" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="X13" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Z13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -2944,19 +2920,19 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
         <v>23</v>
@@ -2986,22 +2962,22 @@
         <v>364635</v>
       </c>
       <c r="U14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="X14" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Z14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
@@ -3022,22 +2998,22 @@
     </row>
     <row r="15" spans="1:50" ht="304" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
@@ -3070,19 +3046,19 @@
         <v>364635</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="X15" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="Z15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -3102,16 +3078,16 @@
     </row>
     <row r="16" spans="1:50" ht="176" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E16" t="s">
         <v>23</v>
@@ -3132,25 +3108,25 @@
         <v>364635</v>
       </c>
       <c r="U16" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="X16" s="12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="Y16" s="12" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="Z16" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AA16" s="12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AG16" s="4"/>
       <c r="AH16" s="4"/>

--- a/vaccinesfull.xlsx
+++ b/vaccinesfull.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A438A5-A3C1-A747-BCA2-7FF29420EB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A56BD9-0AFB-CD43-816D-64BC46D39A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="202">
   <si>
     <t>Vaccine</t>
   </si>
@@ -636,6 +636,69 @@
   </si>
   <si>
     <t>Dose 1 to Dose 2: 4 weeks</t>
+  </si>
+  <si>
+    <t>Dose 1 to Dose 2: 8 weeks</t>
+  </si>
+  <si>
+    <t>Dose 1 to Dose 2: 6 months</t>
+  </si>
+  <si>
+    <t>Catch Up Age 4 months to 6 years</t>
+  </si>
+  <si>
+    <t>3 months</t>
+  </si>
+  <si>
+    <t>Catch Up Age 7 years to 18 years</t>
+  </si>
+  <si>
+    <t>3 months if younger than 13 years or 4 weeks if 13 years or older</t>
+  </si>
+  <si>
+    <t>Catch Up Age 4 months to 4 years</t>
+  </si>
+  <si>
+    <t>Dose 1 to Dose 2: 4 weeks, Dose 2 to Dose 3: 4 weeks, Dose 3 to Dose 4: 6 months (minimum age is 4 years old)</t>
+  </si>
+  <si>
+    <t>Catch Up Age 4 years to 6 years</t>
+  </si>
+  <si>
+    <t>Dose 1 to Dose 2: 4 weeks, Dose 2 to Dose 3: 6 months</t>
+  </si>
+  <si>
+    <t>Dose 1 to Dose 2: 4 weeks, Dose 2 to Dose 3: 6 months, Dose 3 to Dose 4 (If all 3 doses were administered at &lt; 4 years or if the third dose was administered &lt; 6 months after the second dose): 6 months</t>
+  </si>
+  <si>
+    <t>Dose 1 to Dose 2: 4 weeks, Dose 2 to Dose 3: 8 weeks (at least 16 weeks after dose 1)</t>
+  </si>
+  <si>
+    <t>Dose 1 to Dose 2: 4 weeks, Dose 2 to Dose 3: 4 weeks, Dose 3 to Dose 4: 6 months, Dose 4 to Dose 5: 6 months</t>
+  </si>
+  <si>
+    <t>Catch Up Age  4 months to 6 years</t>
+  </si>
+  <si>
+    <t>Dose 1 to Dose 2: 4 weeks, Dose 2 to Dose 3: 4 weeks (max age for dose 2 is 8 months)</t>
+  </si>
+  <si>
+    <t>Catch Up Age 4 months to 6 years: If 1st dose was after 15 months</t>
+  </si>
+  <si>
+    <t>No further doses needed</t>
+  </si>
+  <si>
+    <t>Catch Up Age 4 months to 6 years: If 1st dose was before 12 months</t>
+  </si>
+  <si>
+    <t>Dose 1 to Dose 2: 4 weeks. If current age is less than 12 months and first dose was before 7 months and 1st dose was ActHib, Pentacel, Hiberix, Vaxelis, or unknown, Dose 2 to Dose 3: 4 weeks</t>
+  </si>
+  <si>
+    <t>Catch Up Age 4 months to 6 years: If 1st dose was between 12 and 14 months</t>
+  </si>
+  <si>
+    <t>Dose 1 to Dose 2: 8 weeks. If current age is less than 12 months and first dose was in-between 7 to 11 months OR current age is 12-59 months and first dose was administered before the 1st birthday and second dose was administered at younger than 15 months OR if both doses of PedvaxHIB were administered before the 1st birthday, Dose 2 to Dose 3: 8 weeks (must be 12-59 months old). If all 3 doses were administered before the 1st birthday and the child is 12-59 months old, Dose 3 to Dose 4: 8 weeks</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11:X11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1277,6 +1340,12 @@
       <c r="P2">
         <v>540</v>
       </c>
+      <c r="W2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1383,6 +1452,12 @@
       <c r="T4">
         <v>2190</v>
       </c>
+      <c r="W4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1439,6 +1514,24 @@
       <c r="R5">
         <v>450</v>
       </c>
+      <c r="W5" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1607,6 +1700,24 @@
       <c r="R8">
         <v>2190</v>
       </c>
+      <c r="W8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1789,6 +1900,18 @@
       <c r="N12">
         <v>2190</v>
       </c>
+      <c r="W12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1833,6 +1956,12 @@
       <c r="N13">
         <v>540</v>
       </c>
+      <c r="W13" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1915,6 +2044,12 @@
       <c r="N15">
         <v>5840</v>
       </c>
+      <c r="W15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
@@ -1958,6 +2093,12 @@
       </c>
       <c r="N16">
         <v>240</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
